--- a/raw_ts_data/fd/fd12_gps.xlsx
+++ b/raw_ts_data/fd/fd12_gps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmaboudreau/Documents/GitHub/igea22/raw_ts_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19BDB2C6-41A0-5E47-992F-034318794ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03993CC-5D3E-43EA-AC0C-024FBA66F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16020" xr2:uid="{78E33924-6F87-DD42-A407-63CF9B2E71A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78E33924-6F87-DD42-A407-63CF9B2E71A6}"/>
   </bookViews>
   <sheets>
     <sheet name="GPS" sheetId="1" r:id="rId1"/>
@@ -202,18 +202,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -587,23 +590,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41D1C5B-693C-F445-A3A4-F118A7A30F12}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AB694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G601" sqref="G601"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.19921875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="36.796875" customWidth="1"/>
+    <col min="10" max="10" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -651,7 +654,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -677,7 +680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -703,7 +706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -729,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -755,7 +758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -781,7 +784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -807,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -833,7 +836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -859,7 +862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -885,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -911,7 +914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -937,7 +940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
@@ -963,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
@@ -989,7 +992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
@@ -1619,7 +1622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
@@ -1700,7 +1703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>9</v>
@@ -1748,7 +1751,7 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>16</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>16</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>16</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>16</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>16</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>16</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>16</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>16</v>
       </c>
@@ -2089,7 +2092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>16</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>16</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>16</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>16</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>16</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>16</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>16</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>16</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>16</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>16</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>16</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>16</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>16</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>16</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>16</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>16</v>
       </c>
@@ -2505,7 +2508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>16</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>16</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
         <v>16</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>16</v>
       </c>
@@ -2609,7 +2612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>16</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>16</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>16</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>16</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>16</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
         <v>16</v>
       </c>
@@ -2791,7 +2794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>16</v>
       </c>
@@ -2817,7 +2820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>16</v>
       </c>
@@ -2843,7 +2846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>16</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
         <v>16</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>16</v>
       </c>
@@ -2921,7 +2924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>16</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>16</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
         <v>16</v>
       </c>
@@ -2999,7 +3002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
         <v>16</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
         <v>16</v>
       </c>
@@ -3051,7 +3054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
         <v>16</v>
       </c>
@@ -3077,7 +3080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
         <v>16</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
         <v>16</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
         <v>16</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
         <v>16</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B99" s="2" t="s">
         <v>16</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B100" s="2" t="s">
         <v>16</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>16</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
         <v>16</v>
       </c>
@@ -3285,7 +3288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B103" s="2" t="s">
         <v>16</v>
       </c>
@@ -3311,7 +3314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
         <v>16</v>
       </c>
@@ -3337,7 +3340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>16</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
         <v>16</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B107" s="2" t="s">
         <v>16</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>16</v>
@@ -3461,7 +3464,7 @@
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
     </row>
-    <row r="109" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>19</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>19</v>
       </c>
@@ -3513,7 +3516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>19</v>
       </c>
@@ -3539,7 +3542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>19</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>19</v>
       </c>
@@ -3591,7 +3594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B114" s="2" t="s">
         <v>19</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B115" s="2" t="s">
         <v>19</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B116" s="2" t="s">
         <v>19</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B117" s="2" t="s">
         <v>19</v>
       </c>
@@ -3698,7 +3701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
@@ -3724,7 +3727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
         <v>19</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
         <v>19</v>
       </c>
@@ -3776,7 +3779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B121" s="2" t="s">
         <v>19</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
         <v>19</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B123" s="2" t="s">
         <v>19</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
         <v>19</v>
       </c>
@@ -3880,7 +3883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B125" s="2" t="s">
         <v>19</v>
       </c>
@@ -3906,7 +3909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B126" s="2" t="s">
         <v>19</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B127" s="2" t="s">
         <v>19</v>
       </c>
@@ -3958,7 +3961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B128" s="2" t="s">
         <v>19</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B129" s="2" t="s">
         <v>19</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B130" s="2" t="s">
         <v>19</v>
       </c>
@@ -4037,7 +4040,7 @@
       </c>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B131" s="2" t="s">
         <v>19</v>
       </c>
@@ -4064,7 +4067,7 @@
       </c>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B132" s="2" t="s">
         <v>19</v>
       </c>
@@ -4091,7 +4094,7 @@
       </c>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B133" s="2" t="s">
         <v>19</v>
       </c>
@@ -4118,7 +4121,7 @@
       </c>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B134" s="2" t="s">
         <v>19</v>
       </c>
@@ -4145,7 +4148,7 @@
       </c>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B135" s="2" t="s">
         <v>19</v>
       </c>
@@ -4172,7 +4175,7 @@
       </c>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
         <v>19</v>
       </c>
@@ -4199,7 +4202,7 @@
       </c>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B137" s="2" t="s">
         <v>19</v>
       </c>
@@ -4226,7 +4229,7 @@
       </c>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B138" s="2" t="s">
         <v>19</v>
       </c>
@@ -4253,7 +4256,7 @@
       </c>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B139" s="2" t="s">
         <v>19</v>
       </c>
@@ -4280,7 +4283,7 @@
       </c>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B140" s="2" t="s">
         <v>19</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B141" s="2" t="s">
         <v>19</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B142" s="2" t="s">
         <v>19</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B143" s="2" t="s">
         <v>19</v>
       </c>
@@ -4387,7 +4390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B144" s="2" t="s">
         <v>19</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B145" s="2" t="s">
         <v>19</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B146" s="2" t="s">
         <v>19</v>
       </c>
@@ -4465,7 +4468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B147" s="2" t="s">
         <v>19</v>
       </c>
@@ -4491,7 +4494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B148" s="2" t="s">
         <v>19</v>
       </c>
@@ -4517,7 +4520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B149" s="2" t="s">
         <v>19</v>
       </c>
@@ -4543,7 +4546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B150" s="2" t="s">
         <v>19</v>
       </c>
@@ -4569,7 +4572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B151" s="2" t="s">
         <v>19</v>
       </c>
@@ -4595,7 +4598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B152" s="2" t="s">
         <v>19</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B153" s="2" t="s">
         <v>19</v>
       </c>
@@ -4647,7 +4650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B154" s="2" t="s">
         <v>19</v>
       </c>
@@ -4673,7 +4676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B155" s="2" t="s">
         <v>19</v>
       </c>
@@ -4699,7 +4702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B156" s="2" t="s">
         <v>19</v>
       </c>
@@ -4725,7 +4728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B157" s="2" t="s">
         <v>19</v>
       </c>
@@ -4751,7 +4754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B158" s="2" t="s">
         <v>19</v>
       </c>
@@ -4777,7 +4780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B159" s="2" t="s">
         <v>19</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B160" s="2" t="s">
         <v>19</v>
       </c>
@@ -4829,7 +4832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B161" s="2" t="s">
         <v>19</v>
       </c>
@@ -4855,7 +4858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B162" s="2" t="s">
         <v>19</v>
       </c>
@@ -4881,7 +4884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B163" s="2" t="s">
         <v>19</v>
       </c>
@@ -4907,7 +4910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B164" s="2" t="s">
         <v>19</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B165" s="2" t="s">
         <v>19</v>
       </c>
@@ -4959,7 +4962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B166" s="2" t="s">
         <v>19</v>
       </c>
@@ -4985,7 +4988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B167" s="2" t="s">
         <v>19</v>
       </c>
@@ -5011,7 +5014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
         <v>19</v>
@@ -5059,7 +5062,7 @@
       <c r="AA168" s="3"/>
       <c r="AB168" s="3"/>
     </row>
-    <row r="169" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B169" s="2" t="s">
         <v>21</v>
       </c>
@@ -5085,7 +5088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B170" s="2" t="s">
         <v>21</v>
       </c>
@@ -5111,7 +5114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B171" s="2" t="s">
         <v>21</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B172" s="2" t="s">
         <v>21</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B173" s="2" t="s">
         <v>21</v>
       </c>
@@ -5189,7 +5192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B174" s="2" t="s">
         <v>21</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B175" s="2" t="s">
         <v>21</v>
       </c>
@@ -5241,7 +5244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B176" s="2" t="s">
         <v>21</v>
       </c>
@@ -5267,7 +5270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B177" s="2" t="s">
         <v>21</v>
       </c>
@@ -5293,7 +5296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B178" s="2" t="s">
         <v>21</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B179" s="2" t="s">
         <v>21</v>
       </c>
@@ -5342,7 +5345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B180" s="2" t="s">
         <v>21</v>
       </c>
@@ -5368,7 +5371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B181" s="2" t="s">
         <v>21</v>
       </c>
@@ -5394,7 +5397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B182" s="2" t="s">
         <v>21</v>
       </c>
@@ -5420,7 +5423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B183" s="2" t="s">
         <v>21</v>
       </c>
@@ -5446,7 +5449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B184" s="2" t="s">
         <v>21</v>
       </c>
@@ -5472,7 +5475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B185" s="2" t="s">
         <v>21</v>
       </c>
@@ -5498,7 +5501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B186" s="2" t="s">
         <v>21</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B187" s="2" t="s">
         <v>21</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
         <v>21</v>
       </c>
@@ -5576,7 +5579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B189" s="2" t="s">
         <v>21</v>
       </c>
@@ -5602,7 +5605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B190" s="2" t="s">
         <v>21</v>
       </c>
@@ -5628,7 +5631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B191" s="2" t="s">
         <v>21</v>
       </c>
@@ -5657,7 +5660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B192" s="2" t="s">
         <v>21</v>
       </c>
@@ -5683,7 +5686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
@@ -5709,7 +5712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B194" s="2" t="s">
         <v>21</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B195" s="2" t="s">
         <v>21</v>
       </c>
@@ -5761,7 +5764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B196" s="2" t="s">
         <v>21</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B197" s="2" t="s">
         <v>21</v>
       </c>
@@ -5813,7 +5816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B198" s="2" t="s">
         <v>21</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B199" s="2" t="s">
         <v>21</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B200" s="2" t="s">
         <v>21</v>
       </c>
@@ -5891,7 +5894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B201" s="2" t="s">
         <v>21</v>
       </c>
@@ -5917,7 +5920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B202" s="2" t="s">
         <v>21</v>
       </c>
@@ -5943,7 +5946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B203" s="2" t="s">
         <v>21</v>
       </c>
@@ -5972,7 +5975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B204" s="2" t="s">
         <v>21</v>
       </c>
@@ -5998,7 +6001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B205" s="2" t="s">
         <v>21</v>
       </c>
@@ -6024,7 +6027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B206" s="2" t="s">
         <v>21</v>
       </c>
@@ -6050,7 +6053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B207" s="2" t="s">
         <v>21</v>
       </c>
@@ -6076,7 +6079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B208" s="2" t="s">
         <v>21</v>
       </c>
@@ -6102,7 +6105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B209" s="2" t="s">
         <v>21</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B210" s="2" t="s">
         <v>21</v>
       </c>
@@ -6154,7 +6157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B211" s="2" t="s">
         <v>21</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B212" s="2" t="s">
         <v>21</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B213" s="2" t="s">
         <v>21</v>
       </c>
@@ -6232,7 +6235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B214" s="2" t="s">
         <v>21</v>
       </c>
@@ -6258,7 +6261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B215" s="2" t="s">
         <v>21</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B216" s="2" t="s">
         <v>21</v>
       </c>
@@ -6310,7 +6313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B217" s="2" t="s">
         <v>21</v>
       </c>
@@ -6336,7 +6339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B218" s="2" t="s">
         <v>21</v>
       </c>
@@ -6362,7 +6365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B219" s="2" t="s">
         <v>21</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B220" s="2" t="s">
         <v>21</v>
       </c>
@@ -6414,7 +6417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B221" s="2" t="s">
         <v>21</v>
       </c>
@@ -6440,7 +6443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B222" s="2" t="s">
         <v>21</v>
       </c>
@@ -6466,7 +6469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B223" s="2" t="s">
         <v>21</v>
       </c>
@@ -6492,7 +6495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B224" s="2" t="s">
         <v>21</v>
       </c>
@@ -6518,7 +6521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B225" s="2" t="s">
         <v>21</v>
       </c>
@@ -6544,7 +6547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B226" s="2" t="s">
         <v>21</v>
       </c>
@@ -6570,7 +6573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B227" s="2" t="s">
         <v>21</v>
       </c>
@@ -6596,7 +6599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B228" s="2" t="s">
         <v>21</v>
       </c>
@@ -6622,7 +6625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B229" s="2" t="s">
         <v>21</v>
       </c>
@@ -6648,7 +6651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B230" s="2" t="s">
         <v>21</v>
       </c>
@@ -6674,7 +6677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B231" s="2" t="s">
         <v>21</v>
       </c>
@@ -6700,7 +6703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B232" s="2" t="s">
         <v>21</v>
       </c>
@@ -6726,7 +6729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B233" s="2" t="s">
         <v>21</v>
       </c>
@@ -6752,7 +6755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
         <v>21</v>
@@ -6800,7 +6803,7 @@
       <c r="AA234" s="3"/>
       <c r="AB234" s="3"/>
     </row>
-    <row r="235" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B235" s="2" t="s">
         <v>25</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B236" s="2" t="s">
         <v>25</v>
       </c>
@@ -6852,7 +6855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B237" s="2" t="s">
         <v>25</v>
       </c>
@@ -6878,7 +6881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B238" s="2" t="s">
         <v>25</v>
       </c>
@@ -6904,7 +6907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B239" s="2" t="s">
         <v>25</v>
       </c>
@@ -6930,7 +6933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B240" s="2" t="s">
         <v>25</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B241" s="2" t="s">
         <v>25</v>
       </c>
@@ -6982,7 +6985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B242" s="2" t="s">
         <v>25</v>
       </c>
@@ -7008,7 +7011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B243" s="2" t="s">
         <v>25</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B244" s="2" t="s">
         <v>25</v>
       </c>
@@ -7060,7 +7063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B245" s="2" t="s">
         <v>25</v>
       </c>
@@ -7086,7 +7089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B246" s="2" t="s">
         <v>25</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B247" s="2" t="s">
         <v>25</v>
       </c>
@@ -7138,7 +7141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B248" s="2" t="s">
         <v>25</v>
       </c>
@@ -7164,7 +7167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B249" s="2" t="s">
         <v>25</v>
       </c>
@@ -7190,7 +7193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B250" s="2" t="s">
         <v>25</v>
       </c>
@@ -7216,7 +7219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B251" s="2" t="s">
         <v>25</v>
       </c>
@@ -7242,7 +7245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B252" s="2" t="s">
         <v>25</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B253" s="2" t="s">
         <v>25</v>
       </c>
@@ -7294,7 +7297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
       <c r="B254" s="5" t="s">
         <v>25</v>
@@ -7342,7 +7345,7 @@
       <c r="AA254" s="5"/>
       <c r="AB254" s="5"/>
     </row>
-    <row r="255" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B255" s="2" t="s">
         <v>25</v>
       </c>
@@ -7368,7 +7371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B256" s="5" t="s">
         <v>25</v>
       </c>
@@ -7394,7 +7397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B257" s="2" t="s">
         <v>25</v>
       </c>
@@ -7420,7 +7423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B258" s="5" t="s">
         <v>25</v>
       </c>
@@ -7446,7 +7449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B259" s="2" t="s">
         <v>25</v>
       </c>
@@ -7472,7 +7475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B260" s="5" t="s">
         <v>25</v>
       </c>
@@ -7498,7 +7501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B261" s="2" t="s">
         <v>25</v>
       </c>
@@ -7524,7 +7527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B262" s="5" t="s">
         <v>25</v>
       </c>
@@ -7550,7 +7553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B263" s="2" t="s">
         <v>25</v>
       </c>
@@ -7576,7 +7579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B264" s="5" t="s">
         <v>25</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B265" s="2" t="s">
         <v>25</v>
       </c>
@@ -7628,7 +7631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B266" s="5" t="s">
         <v>25</v>
       </c>
@@ -7654,7 +7657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B267" s="2" t="s">
         <v>25</v>
       </c>
@@ -7680,7 +7683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B268" s="5" t="s">
         <v>25</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B269" s="2" t="s">
         <v>25</v>
       </c>
@@ -7732,7 +7735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B270" s="5" t="s">
         <v>25</v>
       </c>
@@ -7758,7 +7761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B271" s="2" t="s">
         <v>25</v>
       </c>
@@ -7784,7 +7787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B272" s="5" t="s">
         <v>25</v>
       </c>
@@ -7810,7 +7813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B273" s="2" t="s">
         <v>25</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B274" s="5" t="s">
         <v>25</v>
       </c>
@@ -7862,7 +7865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B275" s="2" t="s">
         <v>25</v>
       </c>
@@ -7888,7 +7891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B276" s="5" t="s">
         <v>25</v>
       </c>
@@ -7914,7 +7917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A277" s="3"/>
       <c r="B277" s="3" t="s">
         <v>25</v>
@@ -7960,7 +7963,7 @@
       <c r="AA277" s="3"/>
       <c r="AB277" s="3"/>
     </row>
-    <row r="278" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B278" s="2" t="s">
         <v>26</v>
       </c>
@@ -7989,7 +7992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B279" s="2" t="s">
         <v>26</v>
       </c>
@@ -8015,7 +8018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B280" s="2" t="s">
         <v>26</v>
       </c>
@@ -8041,7 +8044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B281" s="2" t="s">
         <v>26</v>
       </c>
@@ -8067,7 +8070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B282" s="2" t="s">
         <v>26</v>
       </c>
@@ -8093,7 +8096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B283" s="2" t="s">
         <v>26</v>
       </c>
@@ -8117,7 +8120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B284" s="2" t="s">
         <v>26</v>
       </c>
@@ -8143,7 +8146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B285" s="2" t="s">
         <v>26</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B286" s="2" t="s">
         <v>26</v>
       </c>
@@ -8195,7 +8198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B287" s="2" t="s">
         <v>26</v>
       </c>
@@ -8221,7 +8224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:28" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B288" s="2" t="s">
         <v>26</v>
       </c>
@@ -8247,7 +8250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B289" s="2" t="s">
         <v>26</v>
       </c>
@@ -8273,7 +8276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B290" s="2" t="s">
         <v>26</v>
       </c>
@@ -8299,7 +8302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B291" s="2" t="s">
         <v>26</v>
       </c>
@@ -8325,7 +8328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B292" s="2" t="s">
         <v>26</v>
       </c>
@@ -8351,7 +8354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B293" s="2" t="s">
         <v>26</v>
       </c>
@@ -8377,7 +8380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B294" s="2" t="s">
         <v>26</v>
       </c>
@@ -8403,7 +8406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B295" s="2" t="s">
         <v>26</v>
       </c>
@@ -8429,7 +8432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B296" s="2" t="s">
         <v>26</v>
       </c>
@@ -8455,7 +8458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B297" s="2" t="s">
         <v>26</v>
       </c>
@@ -8481,7 +8484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B298" s="2" t="s">
         <v>26</v>
       </c>
@@ -8507,7 +8510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B299" s="2" t="s">
         <v>26</v>
       </c>
@@ -8533,7 +8536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B300" s="2" t="s">
         <v>26</v>
       </c>
@@ -8559,7 +8562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B301" s="2" t="s">
         <v>26</v>
       </c>
@@ -8585,7 +8588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B302" s="2" t="s">
         <v>26</v>
       </c>
@@ -8611,7 +8614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B303" s="2" t="s">
         <v>26</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B304" s="2" t="s">
         <v>26</v>
       </c>
@@ -8663,7 +8666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B305" s="2" t="s">
         <v>26</v>
       </c>
@@ -8689,7 +8692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B306" s="2" t="s">
         <v>26</v>
       </c>
@@ -8715,7 +8718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B307" s="2" t="s">
         <v>26</v>
       </c>
@@ -8741,7 +8744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B308" s="2" t="s">
         <v>26</v>
       </c>
@@ -8767,7 +8770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B309" s="2" t="s">
         <v>26</v>
       </c>
@@ -8793,7 +8796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B310" s="2" t="s">
         <v>26</v>
       </c>
@@ -8819,7 +8822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B311" s="2" t="s">
         <v>26</v>
       </c>
@@ -8845,7 +8848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B312" s="2" t="s">
         <v>26</v>
       </c>
@@ -8871,7 +8874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B313" s="2" t="s">
         <v>26</v>
       </c>
@@ -8897,7 +8900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B314" s="2" t="s">
         <v>26</v>
       </c>
@@ -8923,7 +8926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B315" s="2" t="s">
         <v>26</v>
       </c>
@@ -8949,7 +8952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B316" s="2" t="s">
         <v>26</v>
       </c>
@@ -8975,7 +8978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B317" s="2" t="s">
         <v>26</v>
       </c>
@@ -9001,7 +9004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B318" s="2" t="s">
         <v>26</v>
       </c>
@@ -9027,7 +9030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B319" s="2" t="s">
         <v>26</v>
       </c>
@@ -9053,7 +9056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B320" s="2" t="s">
         <v>26</v>
       </c>
@@ -9079,7 +9082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B321" s="2" t="s">
         <v>26</v>
       </c>
@@ -9105,7 +9108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B322" s="2" t="s">
         <v>30</v>
       </c>
@@ -9131,7 +9134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="323" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B323" s="2" t="s">
         <v>30</v>
       </c>
@@ -9160,7 +9163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="324" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B324" s="2" t="s">
         <v>30</v>
       </c>
@@ -9186,7 +9189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B325" s="2" t="s">
         <v>30</v>
       </c>
@@ -9212,7 +9215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="326" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B326" s="2" t="s">
         <v>30</v>
       </c>
@@ -9238,7 +9241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="327" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B327" s="2" t="s">
         <v>30</v>
       </c>
@@ -9264,7 +9267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="328" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B328" s="2" t="s">
         <v>30</v>
       </c>
@@ -9290,7 +9293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B329" s="2" t="s">
         <v>30</v>
       </c>
@@ -9316,7 +9319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="330" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B330" s="2" t="s">
         <v>30</v>
       </c>
@@ -9342,7 +9345,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="331" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B331" s="2" t="s">
         <v>30</v>
       </c>
@@ -9368,7 +9371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="332" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B332" s="2" t="s">
         <v>30</v>
       </c>
@@ -9394,7 +9397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="333" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B333" s="2" t="s">
         <v>30</v>
       </c>
@@ -9420,7 +9423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="334" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B334" s="2" t="s">
         <v>30</v>
       </c>
@@ -9446,7 +9449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="335" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B335" s="2" t="s">
         <v>30</v>
       </c>
@@ -9472,7 +9475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="336" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B336" s="2" t="s">
         <v>30</v>
       </c>
@@ -9498,7 +9501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="337" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B337" s="2" t="s">
         <v>30</v>
       </c>
@@ -9524,7 +9527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="338" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B338" s="2" t="s">
         <v>30</v>
       </c>
@@ -9550,7 +9553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="339" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B339" s="2" t="s">
         <v>30</v>
       </c>
@@ -9576,7 +9579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="340" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B340" s="2" t="s">
         <v>30</v>
       </c>
@@ -9602,7 +9605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="341" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B341" s="2" t="s">
         <v>30</v>
       </c>
@@ -9628,7 +9631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="342" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B342" s="2" t="s">
         <v>30</v>
       </c>
@@ -9654,7 +9657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B343" s="2" t="s">
         <v>30</v>
       </c>
@@ -9680,7 +9683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="344" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B344" s="2" t="s">
         <v>30</v>
       </c>
@@ -9706,7 +9709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="345" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B345" s="2" t="s">
         <v>30</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B346" s="2" t="s">
         <v>30</v>
       </c>
@@ -9758,7 +9761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B347" s="2" t="s">
         <v>30</v>
       </c>
@@ -9784,7 +9787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="348" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B348" s="2" t="s">
         <v>30</v>
       </c>
@@ -9810,7 +9813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="349" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B349" s="2" t="s">
         <v>30</v>
       </c>
@@ -9836,7 +9839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B350" s="2" t="s">
         <v>30</v>
       </c>
@@ -9862,7 +9865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B351" s="2" t="s">
         <v>30</v>
       </c>
@@ -9888,7 +9891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="352" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B352" s="2" t="s">
         <v>30</v>
       </c>
@@ -9914,7 +9917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="353" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B353" s="2" t="s">
         <v>30</v>
       </c>
@@ -9940,7 +9943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B354" s="2" t="s">
         <v>30</v>
       </c>
@@ -9966,7 +9969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="355" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B355" s="2" t="s">
         <v>30</v>
       </c>
@@ -9992,7 +9995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="356" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B356" s="2" t="s">
         <v>30</v>
       </c>
@@ -10018,7 +10021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="357" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B357" s="2" t="s">
         <v>30</v>
       </c>
@@ -10044,7 +10047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="358" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B358" s="2" t="s">
         <v>30</v>
       </c>
@@ -10070,7 +10073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="359" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B359" s="2" t="s">
         <v>30</v>
       </c>
@@ -10096,7 +10099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="360" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B360" s="2" t="s">
         <v>30</v>
       </c>
@@ -10122,7 +10125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="361" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B361" s="2" t="s">
         <v>30</v>
       </c>
@@ -10148,7 +10151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="362" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B362" s="2" t="s">
         <v>30</v>
       </c>
@@ -10174,7 +10177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="363" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B363" s="2" t="s">
         <v>30</v>
       </c>
@@ -10200,7 +10203,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B364" s="2" t="s">
         <v>30</v>
       </c>
@@ -10226,7 +10229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="365" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B365" s="2" t="s">
         <v>30</v>
       </c>
@@ -10252,7 +10255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="366" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B366" s="2" t="s">
         <v>30</v>
       </c>
@@ -10278,7 +10281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="367" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B367" s="2" t="s">
         <v>30</v>
       </c>
@@ -10304,7 +10307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="368" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B368" s="2" t="s">
         <v>30</v>
       </c>
@@ -10330,7 +10333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="369" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B369" s="2" t="s">
         <v>30</v>
       </c>
@@ -10356,7 +10359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B370" s="2" t="s">
         <v>30</v>
       </c>
@@ -10382,7 +10385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B371" s="2" t="s">
         <v>30</v>
       </c>
@@ -10408,7 +10411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B372" s="2" t="s">
         <v>30</v>
       </c>
@@ -10434,7 +10437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B373" s="2" t="s">
         <v>30</v>
       </c>
@@ -10460,7 +10463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B374" s="2" t="s">
         <v>30</v>
       </c>
@@ -10486,7 +10489,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B375" s="2" t="s">
         <v>30</v>
       </c>
@@ -10512,7 +10515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B376" s="2" t="s">
         <v>30</v>
       </c>
@@ -10538,7 +10541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B377" s="2" t="s">
         <v>30</v>
       </c>
@@ -10564,7 +10567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B378" s="2" t="s">
         <v>30</v>
       </c>
@@ -10590,7 +10593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B379" s="2" t="s">
         <v>30</v>
       </c>
@@ -10616,7 +10619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B380" s="2" t="s">
         <v>30</v>
       </c>
@@ -10642,7 +10645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B381" s="2" t="s">
         <v>30</v>
       </c>
@@ -10668,7 +10671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B382" s="2" t="s">
         <v>30</v>
       </c>
@@ -10694,7 +10697,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A383" s="3"/>
       <c r="B383" s="3" t="s">
         <v>30</v>
@@ -10727,7 +10730,7 @@
       <c r="L383" s="3"/>
       <c r="M383" s="3"/>
     </row>
-    <row r="384" spans="1:13" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B384" s="2" t="s">
         <v>35</v>
       </c>
@@ -10753,7 +10756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B385" s="2" t="s">
         <v>35</v>
       </c>
@@ -10779,7 +10782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B386" s="2" t="s">
         <v>35</v>
       </c>
@@ -10805,7 +10808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B387" s="2" t="s">
         <v>35</v>
       </c>
@@ -10831,7 +10834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="388" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B388" s="2" t="s">
         <v>35</v>
       </c>
@@ -10857,7 +10860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B389" s="2" t="s">
         <v>35</v>
       </c>
@@ -10883,7 +10886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B390" s="2" t="s">
         <v>35</v>
       </c>
@@ -10909,7 +10912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B391" s="2" t="s">
         <v>35</v>
       </c>
@@ -10935,7 +10938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="392" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B392" s="2" t="s">
         <v>35</v>
       </c>
@@ -10961,7 +10964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B393" s="2" t="s">
         <v>35</v>
       </c>
@@ -10987,7 +10990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B394" s="2" t="s">
         <v>35</v>
       </c>
@@ -11013,7 +11016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B395" s="2" t="s">
         <v>35</v>
       </c>
@@ -11039,7 +11042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="396" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B396" s="2" t="s">
         <v>35</v>
       </c>
@@ -11065,7 +11068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B397" s="2" t="s">
         <v>35</v>
       </c>
@@ -11091,7 +11094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B398" s="2" t="s">
         <v>35</v>
       </c>
@@ -11117,7 +11120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B399" s="2" t="s">
         <v>35</v>
       </c>
@@ -11143,7 +11146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B400" s="2" t="s">
         <v>35</v>
       </c>
@@ -11169,7 +11172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B401" s="2" t="s">
         <v>35</v>
       </c>
@@ -11195,7 +11198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B402" s="2" t="s">
         <v>35</v>
       </c>
@@ -11221,7 +11224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B403" s="2" t="s">
         <v>35</v>
       </c>
@@ -11247,7 +11250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B404" s="2" t="s">
         <v>35</v>
       </c>
@@ -11273,7 +11276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B405" s="2" t="s">
         <v>35</v>
       </c>
@@ -11299,7 +11302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B406" s="2" t="s">
         <v>35</v>
       </c>
@@ -11325,7 +11328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B407" s="2" t="s">
         <v>35</v>
       </c>
@@ -11351,7 +11354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B408" s="2" t="s">
         <v>35</v>
       </c>
@@ -11377,7 +11380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="409" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B409" s="2" t="s">
         <v>35</v>
       </c>
@@ -11403,7 +11406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="410" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B410" s="2" t="s">
         <v>35</v>
       </c>
@@ -11429,7 +11432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="411" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B411" s="2" t="s">
         <v>35</v>
       </c>
@@ -11455,7 +11458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="412" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B412" s="2" t="s">
         <v>35</v>
       </c>
@@ -11481,7 +11484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="413" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B413" s="2" t="s">
         <v>35</v>
       </c>
@@ -11507,7 +11510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="414" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B414" s="2" t="s">
         <v>35</v>
       </c>
@@ -11533,7 +11536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="415" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B415" s="2" t="s">
         <v>35</v>
       </c>
@@ -11559,7 +11562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="416" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B416" s="2" t="s">
         <v>35</v>
       </c>
@@ -11585,7 +11588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B417" s="2" t="s">
         <v>35</v>
       </c>
@@ -11611,7 +11614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A418" s="3"/>
       <c r="B418" s="3" t="s">
         <v>35</v>
@@ -11642,7 +11645,7 @@
       </c>
       <c r="K418" s="3"/>
     </row>
-    <row r="419" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B419" s="2" t="s">
         <v>37</v>
       </c>
@@ -11668,7 +11671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B420" s="2" t="s">
         <v>37</v>
       </c>
@@ -11694,7 +11697,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B421" s="2" t="s">
         <v>37</v>
       </c>
@@ -11720,7 +11723,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B422" s="2" t="s">
         <v>37</v>
       </c>
@@ -11746,7 +11749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B423" s="2" t="s">
         <v>37</v>
       </c>
@@ -11772,7 +11775,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B424" s="2" t="s">
         <v>37</v>
       </c>
@@ -11798,7 +11801,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B425" s="2" t="s">
         <v>37</v>
       </c>
@@ -11824,7 +11827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B426" s="2" t="s">
         <v>37</v>
       </c>
@@ -11850,7 +11853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B427" s="2" t="s">
         <v>37</v>
       </c>
@@ -11876,7 +11879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B428" s="2" t="s">
         <v>37</v>
       </c>
@@ -11902,7 +11905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B429" s="2" t="s">
         <v>37</v>
       </c>
@@ -11928,7 +11931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B430" s="2" t="s">
         <v>37</v>
       </c>
@@ -11954,7 +11957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B431" s="2" t="s">
         <v>37</v>
       </c>
@@ -11980,7 +11983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B432" s="2" t="s">
         <v>37</v>
       </c>
@@ -12006,7 +12009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="433" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B433" s="2" t="s">
         <v>37</v>
       </c>
@@ -12032,7 +12035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="434" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B434" s="2" t="s">
         <v>37</v>
       </c>
@@ -12058,7 +12061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="435" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B435" s="2" t="s">
         <v>37</v>
       </c>
@@ -12084,7 +12087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="436" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B436" s="2" t="s">
         <v>37</v>
       </c>
@@ -12110,7 +12113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="437" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B437" s="2" t="s">
         <v>37</v>
       </c>
@@ -12136,7 +12139,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B438" s="2" t="s">
         <v>37</v>
       </c>
@@ -12162,7 +12165,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="439" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B439" s="2" t="s">
         <v>37</v>
       </c>
@@ -12188,7 +12191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="440" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B440" s="2" t="s">
         <v>37</v>
       </c>
@@ -12214,7 +12217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B441" s="2" t="s">
         <v>37</v>
       </c>
@@ -12240,7 +12243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B442" s="2" t="s">
         <v>37</v>
       </c>
@@ -12266,7 +12269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B443" s="2" t="s">
         <v>37</v>
       </c>
@@ -12292,7 +12295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B444" s="2" t="s">
         <v>37</v>
       </c>
@@ -12318,7 +12321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B445" s="2" t="s">
         <v>37</v>
       </c>
@@ -12344,7 +12347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B446" s="2" t="s">
         <v>37</v>
       </c>
@@ -12370,7 +12373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B447" s="2" t="s">
         <v>37</v>
       </c>
@@ -12396,7 +12399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B448" s="2" t="s">
         <v>37</v>
       </c>
@@ -12422,7 +12425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B449" s="2" t="s">
         <v>37</v>
       </c>
@@ -12448,7 +12451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B450" s="2" t="s">
         <v>37</v>
       </c>
@@ -12474,7 +12477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B451" s="2" t="s">
         <v>39</v>
       </c>
@@ -12500,7 +12503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B452" s="2" t="s">
         <v>40</v>
       </c>
@@ -12526,7 +12529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B453" s="2" t="s">
         <v>41</v>
       </c>
@@ -12552,7 +12555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="454" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B454" s="2" t="s">
         <v>41</v>
       </c>
@@ -12578,7 +12581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="455" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B455" s="2" t="s">
         <v>41</v>
       </c>
@@ -12604,7 +12607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="456" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B456" s="2" t="s">
         <v>41</v>
       </c>
@@ -12630,7 +12633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="457" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B457" s="2" t="s">
         <v>41</v>
       </c>
@@ -12656,7 +12659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="458" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B458" s="2" t="s">
         <v>41</v>
       </c>
@@ -12682,7 +12685,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="459" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B459" s="2" t="s">
         <v>41</v>
       </c>
@@ -12708,7 +12711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="460" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B460" s="2" t="s">
         <v>41</v>
       </c>
@@ -12734,7 +12737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="461" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B461" s="2" t="s">
         <v>41</v>
       </c>
@@ -12760,7 +12763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="462" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B462" s="2" t="s">
         <v>41</v>
       </c>
@@ -12786,7 +12789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="463" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B463" s="2" t="s">
         <v>41</v>
       </c>
@@ -12812,7 +12815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="464" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B464" s="2" t="s">
         <v>41</v>
       </c>
@@ -12838,7 +12841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="465" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B465" s="2" t="s">
         <v>41</v>
       </c>
@@ -12864,7 +12867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="466" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B466" s="2" t="s">
         <v>41</v>
       </c>
@@ -12890,7 +12893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="467" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B467" s="2" t="s">
         <v>41</v>
       </c>
@@ -12916,7 +12919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="468" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B468" s="2" t="s">
         <v>41</v>
       </c>
@@ -12942,7 +12945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="469" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B469" s="2" t="s">
         <v>41</v>
       </c>
@@ -12968,7 +12971,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="470" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B470" s="2" t="s">
         <v>41</v>
       </c>
@@ -12994,7 +12997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="471" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B471" s="2" t="s">
         <v>41</v>
       </c>
@@ -13020,7 +13023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="472" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B472" s="2" t="s">
         <v>41</v>
       </c>
@@ -13046,7 +13049,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="473" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B473" s="2" t="s">
         <v>41</v>
       </c>
@@ -13072,7 +13075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B474" s="2" t="s">
         <v>41</v>
       </c>
@@ -13101,7 +13104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="475" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B475" s="2" t="s">
         <v>41</v>
       </c>
@@ -13127,7 +13130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B476" s="2" t="s">
         <v>41</v>
       </c>
@@ -13153,7 +13156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="477" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B477" s="2" t="s">
         <v>41</v>
       </c>
@@ -13182,7 +13185,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="478" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B478" s="2" t="s">
         <v>41</v>
       </c>
@@ -13211,7 +13214,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="479" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B479" s="2" t="s">
         <v>41</v>
       </c>
@@ -13237,7 +13240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="480" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B480" s="2" t="s">
         <v>41</v>
       </c>
@@ -13263,7 +13266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B481" s="2" t="s">
         <v>41</v>
       </c>
@@ -13289,7 +13292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B482" s="2" t="s">
         <v>41</v>
       </c>
@@ -13315,7 +13318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B483" s="2" t="s">
         <v>41</v>
       </c>
@@ -13341,7 +13344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B484" s="2" t="s">
         <v>41</v>
       </c>
@@ -13367,7 +13370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B485" s="2" t="s">
         <v>41</v>
       </c>
@@ -13396,7 +13399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B486" s="2" t="s">
         <v>41</v>
       </c>
@@ -13422,7 +13425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B487" s="2" t="s">
         <v>41</v>
       </c>
@@ -13448,7 +13451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B488" s="2" t="s">
         <v>41</v>
       </c>
@@ -13474,7 +13477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B489" s="2" t="s">
         <v>41</v>
       </c>
@@ -13500,7 +13503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B490" s="2" t="s">
         <v>41</v>
       </c>
@@ -13526,7 +13529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B491" s="2" t="s">
         <v>41</v>
       </c>
@@ -13552,7 +13555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B492" s="2" t="s">
         <v>41</v>
       </c>
@@ -13578,7 +13581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B493" s="2" t="s">
         <v>41</v>
       </c>
@@ -13604,7 +13607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B494" s="2" t="s">
         <v>41</v>
       </c>
@@ -13630,7 +13633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A495" s="3"/>
       <c r="B495" s="3" t="s">
         <v>41</v>
@@ -13658,7 +13661,7 @@
       </c>
       <c r="J495" s="3"/>
     </row>
-    <row r="496" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B496" s="2" t="s">
         <v>43</v>
       </c>
@@ -13684,7 +13687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B497" s="2" t="s">
         <v>43</v>
       </c>
@@ -13710,7 +13713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B498" s="2" t="s">
         <v>44</v>
       </c>
@@ -13736,7 +13739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B499" s="2" t="s">
         <v>44</v>
       </c>
@@ -13762,7 +13765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B500" s="2" t="s">
         <v>44</v>
       </c>
@@ -13788,7 +13791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B501" s="2" t="s">
         <v>44</v>
       </c>
@@ -13814,7 +13817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B502" s="2" t="s">
         <v>44</v>
       </c>
@@ -13840,7 +13843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B503" s="2" t="s">
         <v>44</v>
       </c>
@@ -13866,7 +13869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B504" s="2" t="s">
         <v>44</v>
       </c>
@@ -13892,7 +13895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B505" s="2" t="s">
         <v>44</v>
       </c>
@@ -13918,7 +13921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B506" s="2" t="s">
         <v>44</v>
       </c>
@@ -13944,7 +13947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B507" s="2" t="s">
         <v>44</v>
       </c>
@@ -13970,7 +13973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B508" s="2" t="s">
         <v>44</v>
       </c>
@@ -13996,7 +13999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B509" s="2" t="s">
         <v>44</v>
       </c>
@@ -14022,7 +14025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B510" s="2" t="s">
         <v>44</v>
       </c>
@@ -14048,7 +14051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B511" s="2" t="s">
         <v>44</v>
       </c>
@@ -14074,7 +14077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B512" s="2" t="s">
         <v>44</v>
       </c>
@@ -14100,7 +14103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B513" s="2" t="s">
         <v>44</v>
       </c>
@@ -14126,7 +14129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B514" s="2" t="s">
         <v>44</v>
       </c>
@@ -14152,7 +14155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B515" s="2" t="s">
         <v>44</v>
       </c>
@@ -14178,7 +14181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B516" s="2" t="s">
         <v>44</v>
       </c>
@@ -14204,7 +14207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B517" s="2" t="s">
         <v>44</v>
       </c>
@@ -14230,7 +14233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B518" s="2" t="s">
         <v>44</v>
       </c>
@@ -14256,7 +14259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B519" s="2" t="s">
         <v>44</v>
       </c>
@@ -14282,7 +14285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="520" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B520" s="2" t="s">
         <v>44</v>
       </c>
@@ -14308,7 +14311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B521" s="2" t="s">
         <v>44</v>
       </c>
@@ -14334,7 +14337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B522" s="2" t="s">
         <v>44</v>
       </c>
@@ -14360,7 +14363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="523" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B523" s="2" t="s">
         <v>44</v>
       </c>
@@ -14386,7 +14389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B524" s="2" t="s">
         <v>44</v>
       </c>
@@ -14412,7 +14415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B525" s="2" t="s">
         <v>44</v>
       </c>
@@ -14438,7 +14441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B526" s="2" t="s">
         <v>44</v>
       </c>
@@ -14464,7 +14467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="527" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B527" s="2" t="s">
         <v>44</v>
       </c>
@@ -14490,7 +14493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="528" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B528" s="2" t="s">
         <v>44</v>
       </c>
@@ -14516,7 +14519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="529" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B529" s="2" t="s">
         <v>44</v>
       </c>
@@ -14542,7 +14545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B530" s="2" t="s">
         <v>44</v>
       </c>
@@ -14568,7 +14571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="531" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B531" s="2" t="s">
         <v>44</v>
       </c>
@@ -14594,7 +14597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="532" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B532" s="2" t="s">
         <v>44</v>
       </c>
@@ -14620,7 +14623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="533" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B533" s="2" t="s">
         <v>44</v>
       </c>
@@ -14646,7 +14649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="534" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B534" s="2" t="s">
         <v>44</v>
       </c>
@@ -14672,7 +14675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="535" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B535" s="2" t="s">
         <v>44</v>
       </c>
@@ -14698,7 +14701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B536" s="2" t="s">
         <v>44</v>
       </c>
@@ -14724,7 +14727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="537" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B537" s="2" t="s">
         <v>44</v>
       </c>
@@ -14750,7 +14753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="538" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B538" s="2" t="s">
         <v>44</v>
       </c>
@@ -14776,7 +14779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B539" s="2" t="s">
         <v>44</v>
       </c>
@@ -14802,7 +14805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B540" s="2" t="s">
         <v>44</v>
       </c>
@@ -14828,7 +14831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B541" s="2" t="s">
         <v>44</v>
       </c>
@@ -14854,7 +14857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B542" s="2" t="s">
         <v>44</v>
       </c>
@@ -14880,7 +14883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="543" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B543" s="2" t="s">
         <v>44</v>
       </c>
@@ -14906,7 +14909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B544" s="2" t="s">
         <v>44</v>
       </c>
@@ -14932,7 +14935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B545" s="2" t="s">
         <v>44</v>
       </c>
@@ -14958,7 +14961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B546" s="2" t="s">
         <v>44</v>
       </c>
@@ -14984,7 +14987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="547" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B547" s="2" t="s">
         <v>44</v>
       </c>
@@ -15010,7 +15013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="548" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B548" s="2" t="s">
         <v>44</v>
       </c>
@@ -15036,7 +15039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="549" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B549" s="2" t="s">
         <v>44</v>
       </c>
@@ -15062,7 +15065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="550" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B550" s="2" t="s">
         <v>44</v>
       </c>
@@ -15088,7 +15091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="551" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B551" s="2" t="s">
         <v>44</v>
       </c>
@@ -15114,7 +15117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="552" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B552" s="2" t="s">
         <v>44</v>
       </c>
@@ -15140,7 +15143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="553" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B553" s="2" t="s">
         <v>44</v>
       </c>
@@ -15166,7 +15169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="554" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B554" s="2" t="s">
         <v>44</v>
       </c>
@@ -15192,7 +15195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="555" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B555" s="2" t="s">
         <v>44</v>
       </c>
@@ -15218,7 +15221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="556" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B556" s="2" t="s">
         <v>44</v>
       </c>
@@ -15241,7 +15244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="557" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B557" s="2" t="s">
         <v>46</v>
       </c>
@@ -15267,7 +15270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B558" s="2" t="s">
         <v>46</v>
       </c>
@@ -15293,7 +15296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B559" s="2" t="s">
         <v>46</v>
       </c>
@@ -15319,7 +15322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B560" s="2" t="s">
         <v>46</v>
       </c>
@@ -15345,7 +15348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="561" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B561" s="2" t="s">
         <v>46</v>
       </c>
@@ -15371,7 +15374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B562" s="2" t="s">
         <v>46</v>
       </c>
@@ -15397,7 +15400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="563" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B563" s="2" t="s">
         <v>46</v>
       </c>
@@ -15423,7 +15426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="564" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B564" s="2" t="s">
         <v>46</v>
       </c>
@@ -15449,7 +15452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B565" s="2" t="s">
         <v>46</v>
       </c>
@@ -15475,7 +15478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="566" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B566" s="2" t="s">
         <v>46</v>
       </c>
@@ -15501,7 +15504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="567" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B567" s="2" t="s">
         <v>46</v>
       </c>
@@ -15527,7 +15530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="568" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B568" s="2" t="s">
         <v>46</v>
       </c>
@@ -15553,7 +15556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="569" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B569" s="2" t="s">
         <v>46</v>
       </c>
@@ -15579,7 +15582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B570" s="2" t="s">
         <v>46</v>
       </c>
@@ -15605,7 +15608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="571" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B571" s="2" t="s">
         <v>46</v>
       </c>
@@ -15631,7 +15634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="572" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B572" s="2" t="s">
         <v>46</v>
       </c>
@@ -15657,7 +15660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="573" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B573" s="2" t="s">
         <v>46</v>
       </c>
@@ -15683,7 +15686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B574" s="2" t="s">
         <v>46</v>
       </c>
@@ -15709,7 +15712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="575" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B575" s="2" t="s">
         <v>46</v>
       </c>
@@ -15735,7 +15738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="576" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B576" s="2" t="s">
         <v>46</v>
       </c>
@@ -15761,7 +15764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B577" s="2" t="s">
         <v>46</v>
       </c>
@@ -15787,7 +15790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="578" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B578" s="2" t="s">
         <v>46</v>
       </c>
@@ -15813,7 +15816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="579" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B579" s="2" t="s">
         <v>46</v>
       </c>
@@ -15839,7 +15842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="580" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B580" s="2" t="s">
         <v>46</v>
       </c>
@@ -15865,7 +15868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="581" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B581" s="2" t="s">
         <v>46</v>
       </c>
@@ -15891,7 +15894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="582" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B582" s="2" t="s">
         <v>46</v>
       </c>
@@ -15917,7 +15920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="583" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B583" s="2" t="s">
         <v>46</v>
       </c>
@@ -15943,7 +15946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="584" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B584" s="2" t="s">
         <v>46</v>
       </c>
@@ -15969,7 +15972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="585" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B585" s="2" t="s">
         <v>46</v>
       </c>
@@ -15995,7 +15998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="586" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B586" s="2" t="s">
         <v>46</v>
       </c>
@@ -16021,7 +16024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="587" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B587" s="2" t="s">
         <v>46</v>
       </c>
@@ -16047,7 +16050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="588" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B588" s="2" t="s">
         <v>46</v>
       </c>
@@ -16073,7 +16076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="589" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B589" s="2" t="s">
         <v>46</v>
       </c>
@@ -16099,7 +16102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="590" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B590" s="2" t="s">
         <v>46</v>
       </c>
@@ -16125,7 +16128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="591" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B591" s="2" t="s">
         <v>46</v>
       </c>
@@ -16151,7 +16154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="592" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B592" s="2" t="s">
         <v>46</v>
       </c>
@@ -16177,7 +16180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="593" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B593" s="2" t="s">
         <v>46</v>
       </c>
@@ -16203,7 +16206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="594" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B594" s="2" t="s">
         <v>46</v>
       </c>
@@ -16232,7 +16235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="595" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B595" s="2" t="s">
         <v>47</v>
       </c>
@@ -16258,7 +16261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B596" s="2" t="s">
         <v>47</v>
       </c>
@@ -16284,7 +16287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B597" s="2" t="s">
         <v>47</v>
       </c>
@@ -16310,7 +16313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="598" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B598" s="2" t="s">
         <v>47</v>
       </c>
@@ -16336,7 +16339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="599" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B599" s="2" t="s">
         <v>47</v>
       </c>
@@ -16362,7 +16365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B600" s="2" t="s">
         <v>47</v>
       </c>
@@ -16388,7 +16391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="601" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B601" s="2" t="s">
         <v>47</v>
       </c>
@@ -16414,7 +16417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="602" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B602" s="2" t="s">
         <v>47</v>
       </c>
@@ -16440,7 +16443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="603" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B603" s="2" t="s">
         <v>47</v>
       </c>
@@ -16466,7 +16469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="604" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B604" s="2" t="s">
         <v>47</v>
       </c>
@@ -16492,7 +16495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="605" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B605" s="2" t="s">
         <v>47</v>
       </c>
@@ -16518,7 +16521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="606" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B606" s="2" t="s">
         <v>47</v>
       </c>
@@ -16544,7 +16547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B607" s="2" t="s">
         <v>47</v>
       </c>
@@ -16570,7 +16573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B608" s="2" t="s">
         <v>47</v>
       </c>
@@ -16596,7 +16599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="609" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B609" s="2" t="s">
         <v>47</v>
       </c>
@@ -16622,7 +16625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B610" s="2" t="s">
         <v>47</v>
       </c>
@@ -16648,7 +16651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="611" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B611" s="2" t="s">
         <v>47</v>
       </c>
@@ -16674,7 +16677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="612" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B612" s="2" t="s">
         <v>47</v>
       </c>
@@ -16700,7 +16703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B613" s="2" t="s">
         <v>47</v>
       </c>
@@ -16726,7 +16729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B614" s="2" t="s">
         <v>47</v>
       </c>
@@ -16752,7 +16755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="615" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B615" s="2" t="s">
         <v>47</v>
       </c>
@@ -16778,7 +16781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="616" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B616" s="2" t="s">
         <v>47</v>
       </c>
@@ -16804,7 +16807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="617" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B617" s="2" t="s">
         <v>47</v>
       </c>
@@ -16830,7 +16833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="618" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B618" s="2" t="s">
         <v>47</v>
       </c>
@@ -16856,7 +16859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="619" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B619" s="2" t="s">
         <v>47</v>
       </c>
@@ -16882,7 +16885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="620" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B620" s="2" t="s">
         <v>47</v>
       </c>
@@ -16908,7 +16911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B621" s="2" t="s">
         <v>47</v>
       </c>
@@ -16934,7 +16937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B622" s="2" t="s">
         <v>47</v>
       </c>
@@ -16960,7 +16963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B623" s="2" t="s">
         <v>47</v>
       </c>
@@ -16986,7 +16989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="624" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B624" s="2" t="s">
         <v>47</v>
       </c>
@@ -17012,7 +17015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B625" s="2" t="s">
         <v>47</v>
       </c>
@@ -17041,7 +17044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="626" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B626" s="2" t="s">
         <v>47</v>
       </c>
@@ -17070,7 +17073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="627" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B627" s="2" t="s">
         <v>47</v>
       </c>
@@ -17096,7 +17099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="628" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B628" s="2" t="s">
         <v>47</v>
       </c>
@@ -17122,7 +17125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="629" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B629" s="2" t="s">
         <v>47</v>
       </c>
@@ -17148,7 +17151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="630" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B630" s="2" t="s">
         <v>47</v>
       </c>
@@ -17174,7 +17177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="631" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B631" s="2" t="s">
         <v>47</v>
       </c>
@@ -17200,7 +17203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B632" s="2" t="s">
         <v>47</v>
       </c>
@@ -17226,7 +17229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="633" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B633" s="2" t="s">
         <v>47</v>
       </c>
@@ -17252,7 +17255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="634" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B634" s="2" t="s">
         <v>47</v>
       </c>
@@ -17278,7 +17281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="635" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B635" s="2" t="s">
         <v>47</v>
       </c>
@@ -17304,7 +17307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="636" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B636" s="2" t="s">
         <v>47</v>
       </c>
@@ -17330,7 +17333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="637" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B637" s="2" t="s">
         <v>47</v>
       </c>
@@ -17356,7 +17359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="638" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B638" s="2" t="s">
         <v>47</v>
       </c>
@@ -17382,7 +17385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="639" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B639" s="2" t="s">
         <v>47</v>
       </c>
@@ -17408,7 +17411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="640" spans="2:10" ht="14" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B640" s="2" t="s">
         <v>47</v>
       </c>
@@ -17434,7 +17437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="641" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B641" s="2" t="s">
         <v>47</v>
       </c>
@@ -17460,7 +17463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="642" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B642" s="2" t="s">
         <v>47</v>
       </c>
@@ -17486,7 +17489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="643" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B643" s="2" t="s">
         <v>47</v>
       </c>
@@ -17512,7 +17515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="644" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B644" s="2" t="s">
         <v>47</v>
       </c>
@@ -17538,7 +17541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="645" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B645" s="2" t="s">
         <v>47</v>
       </c>
@@ -17564,7 +17567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="646" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B646" s="2" t="s">
         <v>47</v>
       </c>
@@ -17590,7 +17593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="647" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B647" s="2" t="s">
         <v>47</v>
       </c>
@@ -17616,7 +17619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="648" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B648" s="2" t="s">
         <v>47</v>
       </c>
@@ -17642,7 +17645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="649" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B649" s="2" t="s">
         <v>47</v>
       </c>
@@ -17668,7 +17671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B650" s="2" t="s">
         <v>47</v>
       </c>
@@ -17694,7 +17697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="651" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B651" s="2" t="s">
         <v>47</v>
       </c>
@@ -17720,7 +17723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="652" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B652" s="2" t="s">
         <v>47</v>
       </c>
@@ -17746,7 +17749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="653" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B653" s="2" t="s">
         <v>47</v>
       </c>
@@ -17772,7 +17775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="654" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B654" s="2" t="s">
         <v>47</v>
       </c>
@@ -17798,7 +17801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="655" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B655" s="2" t="s">
         <v>47</v>
       </c>
@@ -17824,7 +17827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="656" spans="2:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B656" s="2" t="s">
         <v>47</v>
       </c>
@@ -17850,7 +17853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="657" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B657" s="2" t="s">
         <v>48</v>
       </c>
@@ -17876,7 +17879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="658" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B658" s="2" t="s">
         <v>48</v>
       </c>
@@ -17902,7 +17905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="659" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B659" s="2" t="s">
         <v>48</v>
       </c>
@@ -17928,7 +17931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="660" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B660" s="2" t="s">
         <v>48</v>
       </c>
@@ -17954,7 +17957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="661" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B661" s="2" t="s">
         <v>48</v>
       </c>
@@ -17980,7 +17983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="662" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B662" s="2" t="s">
         <v>48</v>
       </c>
@@ -18006,7 +18009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="663" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B663" s="2" t="s">
         <v>48</v>
       </c>
@@ -18032,7 +18035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="664" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B664" s="2" t="s">
         <v>48</v>
       </c>
@@ -18058,7 +18061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="665" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B665" s="2" t="s">
         <v>48</v>
       </c>
@@ -18084,7 +18087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="666" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B666" s="2" t="s">
         <v>48</v>
       </c>
@@ -18110,7 +18113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="667" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B667" s="2" t="s">
         <v>48</v>
       </c>
@@ -18136,7 +18139,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="668" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B668" s="2" t="s">
         <v>48</v>
       </c>
@@ -18162,7 +18165,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="669" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B669" s="2" t="s">
         <v>48</v>
       </c>
@@ -18191,7 +18194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="670" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B670" s="2" t="s">
         <v>48</v>
       </c>
@@ -18217,7 +18220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="671" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B671" s="2" t="s">
         <v>48</v>
       </c>
@@ -18243,7 +18246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="672" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B672" s="2" t="s">
         <v>48</v>
       </c>
@@ -18269,7 +18272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="673" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B673" s="2" t="s">
         <v>48</v>
       </c>
@@ -18295,7 +18298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="674" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B674" s="2" t="s">
         <v>48</v>
       </c>
@@ -18321,7 +18324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="675" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B675" s="2" t="s">
         <v>48</v>
       </c>
@@ -18347,7 +18350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="676" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B676" s="2" t="s">
         <v>48</v>
       </c>
@@ -18373,7 +18376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="677" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B677" s="2" t="s">
         <v>48</v>
       </c>
@@ -18399,7 +18402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="678" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B678" s="2" t="s">
         <v>48</v>
       </c>
@@ -18425,7 +18428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="679" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B679" s="2" t="s">
         <v>48</v>
       </c>
@@ -18451,7 +18454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="680" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B680" s="2" t="s">
         <v>48</v>
       </c>
@@ -18477,7 +18480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="681" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B681" s="2" t="s">
         <v>48</v>
       </c>
@@ -18503,7 +18506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="682" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B682" s="2" t="s">
         <v>48</v>
       </c>
@@ -18529,7 +18532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="683" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B683" s="2" t="s">
         <v>48</v>
       </c>
@@ -18555,7 +18558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="684" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B684" s="2" t="s">
         <v>48</v>
       </c>
@@ -18581,7 +18584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="685" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B685" s="2" t="s">
         <v>48</v>
       </c>
@@ -18607,7 +18610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="686" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B686" s="2" t="s">
         <v>48</v>
       </c>
@@ -18633,7 +18636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="687" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B687" s="2" t="s">
         <v>48</v>
       </c>
@@ -18659,7 +18662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="688" spans="2:10" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B688" s="2" t="s">
         <v>48</v>
       </c>
@@ -18688,7 +18691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="689" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B689" s="2" t="s">
         <v>48</v>
       </c>
@@ -18714,7 +18717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="690" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B690" s="2" t="s">
         <v>48</v>
       </c>
@@ -18740,7 +18743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="691" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B691" s="2" t="s">
         <v>48</v>
       </c>
@@ -18766,7 +18769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="692" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B692" s="2" t="s">
         <v>48</v>
       </c>
@@ -18792,7 +18795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="693" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B693" s="2" t="s">
         <v>48</v>
       </c>
@@ -18818,7 +18821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="694" spans="2:9" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B694" s="2" t="s">
         <v>48</v>
       </c>
@@ -18845,13 +18848,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:J694" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="E12"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd"/>

--- a/raw_ts_data/fd/fd12_gps.xlsx
+++ b/raw_ts_data/fd/fd12_gps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03993CC-5D3E-43EA-AC0C-024FBA66F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D093148-F064-4633-B4BF-B1F1E0439FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78E33924-6F87-DD42-A407-63CF9B2E71A6}"/>
   </bookViews>
@@ -87,22 +87,13 @@
     <t>etrek not taken for start of cross section 5</t>
   </si>
   <si>
-    <t>E7</t>
-  </si>
-  <si>
     <t>Not saved</t>
   </si>
   <si>
     <t>TS2</t>
   </si>
   <si>
-    <t>E10</t>
-  </si>
-  <si>
     <t>Etrek Reset</t>
-  </si>
-  <si>
-    <t>E3</t>
   </si>
   <si>
     <t>Didnt save</t>
@@ -127,9 +118,6 @@
   </si>
   <si>
     <t>Sample</t>
-  </si>
-  <si>
-    <t>E1</t>
   </si>
   <si>
     <t>UNC Orange</t>
@@ -162,16 +150,7 @@
     <t>TP19</t>
   </si>
   <si>
-    <t>E13</t>
-  </si>
-  <si>
     <t>Swampy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E8 </t>
-  </si>
-  <si>
-    <t>E8</t>
   </si>
   <si>
     <t>Umass Blue</t>
@@ -180,17 +159,38 @@
     <t>TP10</t>
   </si>
   <si>
-    <t>E12</t>
+    <t>TP6</t>
   </si>
   <si>
-    <t>TP6</t>
+    <t>EP7</t>
+  </si>
+  <si>
+    <t>EP8</t>
+  </si>
+  <si>
+    <t>EP10</t>
+  </si>
+  <si>
+    <t>EP12</t>
+  </si>
+  <si>
+    <t>EP13</t>
+  </si>
+  <si>
+    <t>EP3</t>
+  </si>
+  <si>
+    <t>EP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP8 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -217,6 +217,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -597,8 +603,8 @@
   <dimension ref="A2:AB694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G601" sqref="G601"/>
+      <pane ySplit="2" topLeftCell="A700" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1753,7 +1759,7 @@
     </row>
     <row r="44" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -1777,12 +1783,12 @@
         <v>12</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -1808,7 +1814,7 @@
     </row>
     <row r="46" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -1834,7 +1840,7 @@
     </row>
     <row r="47" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -1860,7 +1866,7 @@
     </row>
     <row r="48" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -1886,7 +1892,7 @@
     </row>
     <row r="49" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -1912,7 +1918,7 @@
     </row>
     <row r="50" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -1938,7 +1944,7 @@
     </row>
     <row r="51" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -1964,7 +1970,7 @@
     </row>
     <row r="52" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -1990,7 +1996,7 @@
     </row>
     <row r="53" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -2016,7 +2022,7 @@
     </row>
     <row r="54" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -2042,7 +2048,7 @@
     </row>
     <row r="55" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -2068,7 +2074,7 @@
     </row>
     <row r="56" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -2094,7 +2100,7 @@
     </row>
     <row r="57" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -2120,7 +2126,7 @@
     </row>
     <row r="58" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -2146,7 +2152,7 @@
     </row>
     <row r="59" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -2172,7 +2178,7 @@
     </row>
     <row r="60" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -2198,7 +2204,7 @@
     </row>
     <row r="61" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -2224,7 +2230,7 @@
     </row>
     <row r="62" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -2250,7 +2256,7 @@
     </row>
     <row r="63" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -2276,7 +2282,7 @@
     </row>
     <row r="64" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -2302,7 +2308,7 @@
     </row>
     <row r="65" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -2328,7 +2334,7 @@
     </row>
     <row r="66" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="67" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -2380,7 +2386,7 @@
     </row>
     <row r="68" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -2406,7 +2412,7 @@
     </row>
     <row r="69" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -2432,7 +2438,7 @@
     </row>
     <row r="70" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -2458,7 +2464,7 @@
     </row>
     <row r="71" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -2484,7 +2490,7 @@
     </row>
     <row r="72" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -2510,7 +2516,7 @@
     </row>
     <row r="73" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -2536,7 +2542,7 @@
     </row>
     <row r="74" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -2562,7 +2568,7 @@
     </row>
     <row r="75" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -2588,7 +2594,7 @@
     </row>
     <row r="76" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -2614,13 +2620,13 @@
     </row>
     <row r="77" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C77" s="2">
         <v>2</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77" s="2">
         <v>419480</v>
@@ -2640,7 +2646,7 @@
     </row>
     <row r="78" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C78" s="2">
         <v>2</v>
@@ -2666,7 +2672,7 @@
     </row>
     <row r="79" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C79" s="2">
         <v>2</v>
@@ -2692,7 +2698,7 @@
     </row>
     <row r="80" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2">
         <v>2</v>
@@ -2718,7 +2724,7 @@
     </row>
     <row r="81" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C81" s="2">
         <v>2</v>
@@ -2744,7 +2750,7 @@
     </row>
     <row r="82" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C82" s="2">
         <v>2</v>
@@ -2770,7 +2776,7 @@
     </row>
     <row r="83" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C83" s="2">
         <v>2</v>
@@ -2796,7 +2802,7 @@
     </row>
     <row r="84" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C84" s="2">
         <v>2</v>
@@ -2822,7 +2828,7 @@
     </row>
     <row r="85" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C85" s="2">
         <v>2</v>
@@ -2848,7 +2854,7 @@
     </row>
     <row r="86" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C86" s="2">
         <v>2</v>
@@ -2874,7 +2880,7 @@
     </row>
     <row r="87" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C87" s="2">
         <v>2</v>
@@ -2900,7 +2906,7 @@
     </row>
     <row r="88" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C88" s="2">
         <v>2</v>
@@ -2926,7 +2932,7 @@
     </row>
     <row r="89" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C89" s="2">
         <v>2</v>
@@ -2952,7 +2958,7 @@
     </row>
     <row r="90" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C90" s="2">
         <v>2</v>
@@ -2978,7 +2984,7 @@
     </row>
     <row r="91" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C91" s="2">
         <v>2</v>
@@ -3004,7 +3010,7 @@
     </row>
     <row r="92" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C92" s="2">
         <v>2</v>
@@ -3030,7 +3036,7 @@
     </row>
     <row r="93" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C93" s="2">
         <v>2</v>
@@ -3056,7 +3062,7 @@
     </row>
     <row r="94" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C94" s="2">
         <v>2</v>
@@ -3082,7 +3088,7 @@
     </row>
     <row r="95" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C95" s="2">
         <v>2</v>
@@ -3108,7 +3114,7 @@
     </row>
     <row r="96" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C96" s="2">
         <v>2</v>
@@ -3134,7 +3140,7 @@
     </row>
     <row r="97" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C97" s="2">
         <v>2</v>
@@ -3160,7 +3166,7 @@
     </row>
     <row r="98" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C98" s="2">
         <v>2</v>
@@ -3186,7 +3192,7 @@
     </row>
     <row r="99" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B99" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C99" s="2">
         <v>2</v>
@@ -3212,7 +3218,7 @@
     </row>
     <row r="100" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B100" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C100" s="2">
         <v>2</v>
@@ -3238,7 +3244,7 @@
     </row>
     <row r="101" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C101" s="2">
         <v>2</v>
@@ -3264,7 +3270,7 @@
     </row>
     <row r="102" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C102" s="2">
         <v>2</v>
@@ -3290,7 +3296,7 @@
     </row>
     <row r="103" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B103" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C103" s="2">
         <v>2</v>
@@ -3316,7 +3322,7 @@
     </row>
     <row r="104" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C104" s="2">
         <v>2</v>
@@ -3342,7 +3348,7 @@
     </row>
     <row r="105" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C105" s="2">
         <v>2</v>
@@ -3368,7 +3374,7 @@
     </row>
     <row r="106" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C106" s="2">
         <v>2</v>
@@ -3394,7 +3400,7 @@
     </row>
     <row r="107" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B107" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C107" s="2">
         <v>2</v>
@@ -3421,7 +3427,7 @@
     <row r="108" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C108" s="3">
         <v>2</v>
@@ -3466,7 +3472,7 @@
     </row>
     <row r="109" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C109" s="2">
         <v>2</v>
@@ -3492,7 +3498,7 @@
     </row>
     <row r="110" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C110" s="2">
         <v>2</v>
@@ -3518,7 +3524,7 @@
     </row>
     <row r="111" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2">
         <v>2</v>
@@ -3544,7 +3550,7 @@
     </row>
     <row r="112" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C112" s="2">
         <v>2</v>
@@ -3570,7 +3576,7 @@
     </row>
     <row r="113" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C113" s="2">
         <v>2</v>
@@ -3596,7 +3602,7 @@
     </row>
     <row r="114" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B114" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C114" s="2">
         <v>2</v>
@@ -3620,12 +3626,12 @@
         <v>12</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B115" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C115" s="2">
         <v>2</v>
@@ -3651,7 +3657,7 @@
     </row>
     <row r="116" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B116" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C116" s="2">
         <v>2</v>
@@ -3677,7 +3683,7 @@
     </row>
     <row r="117" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B117" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C117" s="2">
         <v>2</v>
@@ -3703,7 +3709,7 @@
     </row>
     <row r="118" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C118" s="2">
         <v>2</v>
@@ -3729,7 +3735,7 @@
     </row>
     <row r="119" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C119" s="2">
         <v>2</v>
@@ -3755,7 +3761,7 @@
     </row>
     <row r="120" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C120" s="2">
         <v>2</v>
@@ -3781,7 +3787,7 @@
     </row>
     <row r="121" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B121" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C121" s="2">
         <v>2</v>
@@ -3807,7 +3813,7 @@
     </row>
     <row r="122" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C122" s="2">
         <v>2</v>
@@ -3833,7 +3839,7 @@
     </row>
     <row r="123" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B123" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C123" s="2">
         <v>2</v>
@@ -3859,7 +3865,7 @@
     </row>
     <row r="124" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C124" s="2">
         <v>2</v>
@@ -3885,7 +3891,7 @@
     </row>
     <row r="125" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B125" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C125" s="2">
         <v>2</v>
@@ -3911,7 +3917,7 @@
     </row>
     <row r="126" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B126" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C126" s="2">
         <v>2</v>
@@ -3937,7 +3943,7 @@
     </row>
     <row r="127" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B127" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C127" s="2">
         <v>2</v>
@@ -3963,7 +3969,7 @@
     </row>
     <row r="128" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B128" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C128" s="2">
         <v>2</v>
@@ -3989,7 +3995,7 @@
     </row>
     <row r="129" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B129" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C129" s="2">
         <v>2</v>
@@ -4015,7 +4021,7 @@
     </row>
     <row r="130" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B130" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C130" s="2">
         <v>2</v>
@@ -4042,7 +4048,7 @@
     </row>
     <row r="131" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B131" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C131" s="2">
         <v>2</v>
@@ -4069,7 +4075,7 @@
     </row>
     <row r="132" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B132" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C132" s="2">
         <v>2</v>
@@ -4096,7 +4102,7 @@
     </row>
     <row r="133" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B133" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C133" s="2">
         <v>2</v>
@@ -4123,7 +4129,7 @@
     </row>
     <row r="134" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B134" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C134" s="2">
         <v>2</v>
@@ -4150,7 +4156,7 @@
     </row>
     <row r="135" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B135" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C135" s="2">
         <v>2</v>
@@ -4177,7 +4183,7 @@
     </row>
     <row r="136" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C136" s="2">
         <v>2</v>
@@ -4204,7 +4210,7 @@
     </row>
     <row r="137" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B137" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C137" s="2">
         <v>2</v>
@@ -4231,7 +4237,7 @@
     </row>
     <row r="138" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B138" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C138" s="2">
         <v>2</v>
@@ -4258,7 +4264,7 @@
     </row>
     <row r="139" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B139" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C139" s="2">
         <v>2</v>
@@ -4285,7 +4291,7 @@
     </row>
     <row r="140" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B140" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C140" s="2">
         <v>2</v>
@@ -4314,7 +4320,7 @@
     </row>
     <row r="141" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B141" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C141" s="2">
         <v>1</v>
@@ -4340,7 +4346,7 @@
     </row>
     <row r="142" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B142" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C142" s="2">
         <v>1</v>
@@ -4366,7 +4372,7 @@
     </row>
     <row r="143" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B143" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C143" s="2">
         <v>1</v>
@@ -4392,7 +4398,7 @@
     </row>
     <row r="144" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B144" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C144" s="2">
         <v>1</v>
@@ -4418,7 +4424,7 @@
     </row>
     <row r="145" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B145" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C145" s="2">
         <v>1</v>
@@ -4444,7 +4450,7 @@
     </row>
     <row r="146" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B146" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C146" s="2">
         <v>1</v>
@@ -4470,7 +4476,7 @@
     </row>
     <row r="147" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B147" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C147" s="2">
         <v>1</v>
@@ -4496,7 +4502,7 @@
     </row>
     <row r="148" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B148" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C148" s="2">
         <v>1</v>
@@ -4522,7 +4528,7 @@
     </row>
     <row r="149" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B149" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C149" s="2">
         <v>1</v>
@@ -4548,7 +4554,7 @@
     </row>
     <row r="150" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B150" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C150" s="2">
         <v>1</v>
@@ -4574,7 +4580,7 @@
     </row>
     <row r="151" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B151" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C151" s="2">
         <v>1</v>
@@ -4600,7 +4606,7 @@
     </row>
     <row r="152" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B152" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C152" s="2">
         <v>1</v>
@@ -4626,7 +4632,7 @@
     </row>
     <row r="153" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B153" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C153" s="2">
         <v>1</v>
@@ -4652,7 +4658,7 @@
     </row>
     <row r="154" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B154" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C154" s="2">
         <v>1</v>
@@ -4678,7 +4684,7 @@
     </row>
     <row r="155" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B155" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C155" s="2">
         <v>1</v>
@@ -4704,7 +4710,7 @@
     </row>
     <row r="156" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B156" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C156" s="2">
         <v>1</v>
@@ -4730,7 +4736,7 @@
     </row>
     <row r="157" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B157" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C157" s="2">
         <v>1</v>
@@ -4756,7 +4762,7 @@
     </row>
     <row r="158" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B158" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C158" s="2">
         <v>1</v>
@@ -4782,7 +4788,7 @@
     </row>
     <row r="159" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B159" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C159" s="2">
         <v>1</v>
@@ -4808,7 +4814,7 @@
     </row>
     <row r="160" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B160" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C160" s="2">
         <v>1</v>
@@ -4834,7 +4840,7 @@
     </row>
     <row r="161" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B161" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C161" s="2">
         <v>1</v>
@@ -4860,7 +4866,7 @@
     </row>
     <row r="162" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B162" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C162" s="2">
         <v>1</v>
@@ -4886,7 +4892,7 @@
     </row>
     <row r="163" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B163" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C163" s="2">
         <v>1</v>
@@ -4912,7 +4918,7 @@
     </row>
     <row r="164" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B164" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C164" s="2">
         <v>1</v>
@@ -4938,7 +4944,7 @@
     </row>
     <row r="165" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B165" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C165" s="2">
         <v>1</v>
@@ -4964,7 +4970,7 @@
     </row>
     <row r="166" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B166" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C166" s="2">
         <v>1</v>
@@ -4990,7 +4996,7 @@
     </row>
     <row r="167" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B167" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C167" s="2">
         <v>1</v>
@@ -5017,7 +5023,7 @@
     <row r="168" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C168" s="3">
         <v>1</v>
@@ -5064,7 +5070,7 @@
     </row>
     <row r="169" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B169" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C169" s="2">
         <v>1</v>
@@ -5090,7 +5096,7 @@
     </row>
     <row r="170" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B170" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C170" s="2">
         <v>1</v>
@@ -5116,7 +5122,7 @@
     </row>
     <row r="171" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B171" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C171" s="2">
         <v>1</v>
@@ -5142,7 +5148,7 @@
     </row>
     <row r="172" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B172" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C172" s="2">
         <v>1</v>
@@ -5168,7 +5174,7 @@
     </row>
     <row r="173" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B173" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C173" s="2">
         <v>1</v>
@@ -5194,7 +5200,7 @@
     </row>
     <row r="174" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B174" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C174" s="2">
         <v>1</v>
@@ -5220,7 +5226,7 @@
     </row>
     <row r="175" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B175" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C175" s="2">
         <v>1</v>
@@ -5246,7 +5252,7 @@
     </row>
     <row r="176" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B176" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C176" s="2">
         <v>1</v>
@@ -5272,7 +5278,7 @@
     </row>
     <row r="177" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B177" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C177" s="2">
         <v>1</v>
@@ -5298,7 +5304,7 @@
     </row>
     <row r="178" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B178" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C178" s="2">
         <v>1</v>
@@ -5324,7 +5330,7 @@
     </row>
     <row r="179" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B179" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C179" s="2">
         <v>1</v>
@@ -5342,12 +5348,12 @@
         <v>835</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B180" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C180" s="2">
         <v>1</v>
@@ -5373,7 +5379,7 @@
     </row>
     <row r="181" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B181" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C181" s="2">
         <v>1</v>
@@ -5399,7 +5405,7 @@
     </row>
     <row r="182" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B182" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C182" s="2">
         <v>1</v>
@@ -5425,7 +5431,7 @@
     </row>
     <row r="183" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B183" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C183" s="2">
         <v>1</v>
@@ -5451,7 +5457,7 @@
     </row>
     <row r="184" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B184" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C184" s="2">
         <v>1</v>
@@ -5477,7 +5483,7 @@
     </row>
     <row r="185" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B185" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C185" s="2">
         <v>1</v>
@@ -5503,7 +5509,7 @@
     </row>
     <row r="186" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B186" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C186" s="2">
         <v>1</v>
@@ -5529,7 +5535,7 @@
     </row>
     <row r="187" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B187" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C187" s="2">
         <v>1</v>
@@ -5555,7 +5561,7 @@
     </row>
     <row r="188" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C188" s="2">
         <v>1</v>
@@ -5581,7 +5587,7 @@
     </row>
     <row r="189" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B189" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C189" s="2">
         <v>1</v>
@@ -5607,7 +5613,7 @@
     </row>
     <row r="190" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B190" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C190" s="2">
         <v>1</v>
@@ -5633,7 +5639,7 @@
     </row>
     <row r="191" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B191" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C191" s="2">
         <v>1</v>
@@ -5654,7 +5660,7 @@
         <v>599</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>13</v>
@@ -5662,7 +5668,7 @@
     </row>
     <row r="192" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B192" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C192" s="2">
         <v>1</v>
@@ -5688,7 +5694,7 @@
     </row>
     <row r="193" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B193" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C193" s="2">
         <v>1</v>
@@ -5714,7 +5720,7 @@
     </row>
     <row r="194" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B194" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C194" s="2">
         <v>1</v>
@@ -5740,7 +5746,7 @@
     </row>
     <row r="195" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B195" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C195" s="2">
         <v>1</v>
@@ -5766,7 +5772,7 @@
     </row>
     <row r="196" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B196" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C196" s="2">
         <v>1</v>
@@ -5792,7 +5798,7 @@
     </row>
     <row r="197" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B197" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C197" s="2">
         <v>1</v>
@@ -5818,7 +5824,7 @@
     </row>
     <row r="198" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B198" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C198" s="2">
         <v>1</v>
@@ -5844,7 +5850,7 @@
     </row>
     <row r="199" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B199" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C199" s="2">
         <v>1</v>
@@ -5870,7 +5876,7 @@
     </row>
     <row r="200" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B200" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C200" s="2">
         <v>1</v>
@@ -5896,7 +5902,7 @@
     </row>
     <row r="201" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B201" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C201" s="2">
         <v>1</v>
@@ -5922,13 +5928,13 @@
     </row>
     <row r="202" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B202" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C202" s="2">
         <v>2</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E202" s="2">
         <v>404835</v>
@@ -5948,7 +5954,7 @@
     </row>
     <row r="203" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B203" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C203" s="2">
         <v>2</v>
@@ -5972,12 +5978,12 @@
         <v>12</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B204" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C204" s="2">
         <v>2</v>
@@ -6003,7 +6009,7 @@
     </row>
     <row r="205" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B205" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C205" s="2">
         <v>2</v>
@@ -6029,7 +6035,7 @@
     </row>
     <row r="206" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B206" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C206" s="2">
         <v>2</v>
@@ -6055,7 +6061,7 @@
     </row>
     <row r="207" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B207" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C207" s="2">
         <v>2</v>
@@ -6081,7 +6087,7 @@
     </row>
     <row r="208" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B208" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C208" s="2">
         <v>2</v>
@@ -6107,7 +6113,7 @@
     </row>
     <row r="209" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B209" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C209" s="2">
         <v>2</v>
@@ -6133,7 +6139,7 @@
     </row>
     <row r="210" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B210" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C210" s="2">
         <v>2</v>
@@ -6159,7 +6165,7 @@
     </row>
     <row r="211" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B211" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C211" s="2">
         <v>2</v>
@@ -6185,7 +6191,7 @@
     </row>
     <row r="212" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B212" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C212" s="2">
         <v>2</v>
@@ -6211,7 +6217,7 @@
     </row>
     <row r="213" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B213" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C213" s="2">
         <v>2</v>
@@ -6237,7 +6243,7 @@
     </row>
     <row r="214" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B214" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C214" s="2">
         <v>2</v>
@@ -6263,7 +6269,7 @@
     </row>
     <row r="215" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B215" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C215" s="2">
         <v>2</v>
@@ -6289,7 +6295,7 @@
     </row>
     <row r="216" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B216" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C216" s="2">
         <v>2</v>
@@ -6315,7 +6321,7 @@
     </row>
     <row r="217" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B217" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C217" s="2">
         <v>2</v>
@@ -6341,7 +6347,7 @@
     </row>
     <row r="218" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B218" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C218" s="2">
         <v>2</v>
@@ -6367,7 +6373,7 @@
     </row>
     <row r="219" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B219" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C219" s="2">
         <v>2</v>
@@ -6393,7 +6399,7 @@
     </row>
     <row r="220" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B220" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C220" s="2">
         <v>2</v>
@@ -6419,7 +6425,7 @@
     </row>
     <row r="221" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B221" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C221" s="2">
         <v>2</v>
@@ -6445,7 +6451,7 @@
     </row>
     <row r="222" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B222" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C222" s="2">
         <v>2</v>
@@ -6471,7 +6477,7 @@
     </row>
     <row r="223" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B223" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C223" s="2">
         <v>2</v>
@@ -6492,12 +6498,12 @@
         <v>587</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B224" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C224" s="2">
         <v>2</v>
@@ -6518,12 +6524,12 @@
         <v>588</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B225" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C225" s="2">
         <v>2</v>
@@ -6544,12 +6550,12 @@
         <v>589</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B226" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C226" s="2">
         <v>2</v>
@@ -6570,12 +6576,12 @@
         <v>590</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B227" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C227" s="2">
         <v>2</v>
@@ -6596,12 +6602,12 @@
         <v>592</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B228" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C228" s="2">
         <v>2</v>
@@ -6622,12 +6628,12 @@
         <v>593</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B229" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C229" s="2">
         <v>2</v>
@@ -6648,12 +6654,12 @@
         <v>594</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B230" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C230" s="2">
         <v>2</v>
@@ -6674,12 +6680,12 @@
         <v>595</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B231" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C231" s="2">
         <v>2</v>
@@ -6700,12 +6706,12 @@
         <v>596</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B232" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C232" s="2">
         <v>2</v>
@@ -6726,12 +6732,12 @@
         <v>597</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B233" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C233" s="2">
         <v>2</v>
@@ -6752,13 +6758,13 @@
         <v>598</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C234" s="3">
         <v>2</v>
@@ -6779,7 +6785,7 @@
         <v>599</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J234" s="3" t="s">
         <v>13</v>
@@ -6805,7 +6811,7 @@
     </row>
     <row r="235" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B235" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C235" s="2">
         <v>1</v>
@@ -6831,7 +6837,7 @@
     </row>
     <row r="236" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B236" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C236" s="2">
         <v>1</v>
@@ -6857,7 +6863,7 @@
     </row>
     <row r="237" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B237" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C237" s="2">
         <v>1</v>
@@ -6883,7 +6889,7 @@
     </row>
     <row r="238" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B238" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C238" s="2">
         <v>1</v>
@@ -6909,7 +6915,7 @@
     </row>
     <row r="239" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B239" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C239" s="2">
         <v>1</v>
@@ -6935,7 +6941,7 @@
     </row>
     <row r="240" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B240" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C240" s="2">
         <v>1</v>
@@ -6961,7 +6967,7 @@
     </row>
     <row r="241" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B241" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C241" s="2">
         <v>1</v>
@@ -6987,7 +6993,7 @@
     </row>
     <row r="242" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B242" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C242" s="2">
         <v>1</v>
@@ -7013,7 +7019,7 @@
     </row>
     <row r="243" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B243" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C243" s="2">
         <v>1</v>
@@ -7039,7 +7045,7 @@
     </row>
     <row r="244" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B244" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C244" s="2">
         <v>1</v>
@@ -7065,7 +7071,7 @@
     </row>
     <row r="245" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B245" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C245" s="2">
         <v>1</v>
@@ -7091,7 +7097,7 @@
     </row>
     <row r="246" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B246" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C246" s="2">
         <v>1</v>
@@ -7117,7 +7123,7 @@
     </row>
     <row r="247" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B247" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C247" s="2">
         <v>1</v>
@@ -7143,7 +7149,7 @@
     </row>
     <row r="248" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B248" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C248" s="2">
         <v>1</v>
@@ -7169,7 +7175,7 @@
     </row>
     <row r="249" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B249" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C249" s="2">
         <v>1</v>
@@ -7195,7 +7201,7 @@
     </row>
     <row r="250" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B250" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C250" s="2">
         <v>1</v>
@@ -7221,7 +7227,7 @@
     </row>
     <row r="251" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B251" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C251" s="2">
         <v>1</v>
@@ -7247,7 +7253,7 @@
     </row>
     <row r="252" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B252" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C252" s="2">
         <v>1</v>
@@ -7273,7 +7279,7 @@
     </row>
     <row r="253" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B253" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C253" s="2">
         <v>1</v>
@@ -7300,7 +7306,7 @@
     <row r="254" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
       <c r="B254" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C254" s="5">
         <v>1</v>
@@ -7347,13 +7353,13 @@
     </row>
     <row r="255" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B255" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C255" s="2">
         <v>2</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E255" s="2">
         <v>420499</v>
@@ -7373,7 +7379,7 @@
     </row>
     <row r="256" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B256" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C256" s="2">
         <v>2</v>
@@ -7399,7 +7405,7 @@
     </row>
     <row r="257" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B257" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C257" s="2">
         <v>2</v>
@@ -7425,7 +7431,7 @@
     </row>
     <row r="258" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B258" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C258" s="2">
         <v>2</v>
@@ -7451,7 +7457,7 @@
     </row>
     <row r="259" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B259" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C259" s="2">
         <v>2</v>
@@ -7477,7 +7483,7 @@
     </row>
     <row r="260" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B260" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C260" s="2">
         <v>2</v>
@@ -7503,7 +7509,7 @@
     </row>
     <row r="261" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B261" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C261" s="2">
         <v>2</v>
@@ -7529,7 +7535,7 @@
     </row>
     <row r="262" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B262" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C262" s="2">
         <v>2</v>
@@ -7555,7 +7561,7 @@
     </row>
     <row r="263" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B263" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C263" s="2">
         <v>2</v>
@@ -7581,7 +7587,7 @@
     </row>
     <row r="264" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B264" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C264" s="2">
         <v>2</v>
@@ -7607,7 +7613,7 @@
     </row>
     <row r="265" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B265" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C265" s="2">
         <v>2</v>
@@ -7633,7 +7639,7 @@
     </row>
     <row r="266" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B266" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C266" s="2">
         <v>2</v>
@@ -7659,7 +7665,7 @@
     </row>
     <row r="267" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B267" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C267" s="2">
         <v>2</v>
@@ -7685,7 +7691,7 @@
     </row>
     <row r="268" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B268" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C268" s="2">
         <v>2</v>
@@ -7711,7 +7717,7 @@
     </row>
     <row r="269" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B269" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C269" s="2">
         <v>2</v>
@@ -7737,7 +7743,7 @@
     </row>
     <row r="270" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B270" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C270" s="2">
         <v>2</v>
@@ -7763,7 +7769,7 @@
     </row>
     <row r="271" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B271" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C271" s="2">
         <v>2</v>
@@ -7789,7 +7795,7 @@
     </row>
     <row r="272" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B272" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C272" s="2">
         <v>2</v>
@@ -7815,7 +7821,7 @@
     </row>
     <row r="273" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B273" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C273" s="2">
         <v>2</v>
@@ -7841,7 +7847,7 @@
     </row>
     <row r="274" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B274" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C274" s="2">
         <v>2</v>
@@ -7867,7 +7873,7 @@
     </row>
     <row r="275" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B275" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C275" s="2">
         <v>2</v>
@@ -7893,7 +7899,7 @@
     </row>
     <row r="276" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B276" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C276" s="2">
         <v>2</v>
@@ -7920,7 +7926,7 @@
     <row r="277" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A277" s="3"/>
       <c r="B277" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C277" s="3">
         <v>2</v>
@@ -7965,7 +7971,7 @@
     </row>
     <row r="278" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B278" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C278" s="2">
         <v>1</v>
@@ -7989,12 +7995,12 @@
         <v>12</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="279" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B279" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C279" s="2">
         <v>1</v>
@@ -8020,7 +8026,7 @@
     </row>
     <row r="280" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B280" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C280" s="2">
         <v>1</v>
@@ -8046,7 +8052,7 @@
     </row>
     <row r="281" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B281" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C281" s="2">
         <v>1</v>
@@ -8072,7 +8078,7 @@
     </row>
     <row r="282" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B282" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C282" s="2">
         <v>1</v>
@@ -8098,7 +8104,7 @@
     </row>
     <row r="283" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B283" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C283" s="2">
         <v>1</v>
@@ -8117,12 +8123,12 @@
         <v>12</v>
       </c>
       <c r="J283" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="284" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B284" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C284" s="2">
         <v>1</v>
@@ -8148,7 +8154,7 @@
     </row>
     <row r="285" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B285" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C285" s="2">
         <v>1</v>
@@ -8174,7 +8180,7 @@
     </row>
     <row r="286" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B286" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C286" s="2">
         <v>1</v>
@@ -8200,7 +8206,7 @@
     </row>
     <row r="287" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B287" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C287" s="2">
         <v>1</v>
@@ -8226,7 +8232,7 @@
     </row>
     <row r="288" spans="1:28" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B288" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C288" s="2">
         <v>1</v>
@@ -8252,7 +8258,7 @@
     </row>
     <row r="289" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B289" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C289" s="2">
         <v>1</v>
@@ -8278,7 +8284,7 @@
     </row>
     <row r="290" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B290" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C290" s="2">
         <v>1</v>
@@ -8304,7 +8310,7 @@
     </row>
     <row r="291" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B291" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C291" s="2">
         <v>1</v>
@@ -8330,7 +8336,7 @@
     </row>
     <row r="292" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B292" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C292" s="2">
         <v>1</v>
@@ -8356,7 +8362,7 @@
     </row>
     <row r="293" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B293" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C293" s="2">
         <v>1</v>
@@ -8382,7 +8388,7 @@
     </row>
     <row r="294" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B294" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C294" s="2">
         <v>1</v>
@@ -8408,7 +8414,7 @@
     </row>
     <row r="295" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B295" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C295" s="2">
         <v>1</v>
@@ -8434,7 +8440,7 @@
     </row>
     <row r="296" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B296" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C296" s="2">
         <v>1</v>
@@ -8460,7 +8466,7 @@
     </row>
     <row r="297" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B297" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C297" s="2">
         <v>1</v>
@@ -8486,13 +8492,13 @@
     </row>
     <row r="298" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B298" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C298" s="2">
         <v>2</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E298" s="2">
         <v>420214</v>
@@ -8512,7 +8518,7 @@
     </row>
     <row r="299" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B299" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C299" s="2">
         <v>2</v>
@@ -8538,7 +8544,7 @@
     </row>
     <row r="300" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B300" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C300" s="2">
         <v>2</v>
@@ -8564,7 +8570,7 @@
     </row>
     <row r="301" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B301" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C301" s="2">
         <v>2</v>
@@ -8590,7 +8596,7 @@
     </row>
     <row r="302" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B302" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C302" s="2">
         <v>2</v>
@@ -8616,7 +8622,7 @@
     </row>
     <row r="303" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B303" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C303" s="2">
         <v>2</v>
@@ -8642,7 +8648,7 @@
     </row>
     <row r="304" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B304" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C304" s="2">
         <v>2</v>
@@ -8668,7 +8674,7 @@
     </row>
     <row r="305" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B305" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C305" s="2">
         <v>2</v>
@@ -8694,13 +8700,13 @@
     </row>
     <row r="306" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B306" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C306" s="2">
+        <v>2</v>
+      </c>
+      <c r="D306" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C306" s="2">
-        <v>2</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E306" s="2">
         <v>420243</v>
@@ -8720,7 +8726,7 @@
     </row>
     <row r="307" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B307" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C307" s="2">
         <v>2</v>
@@ -8746,7 +8752,7 @@
     </row>
     <row r="308" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B308" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C308" s="2">
         <v>2</v>
@@ -8772,7 +8778,7 @@
     </row>
     <row r="309" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B309" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C309" s="2">
         <v>2</v>
@@ -8798,7 +8804,7 @@
     </row>
     <row r="310" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B310" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C310" s="2">
         <v>2</v>
@@ -8824,7 +8830,7 @@
     </row>
     <row r="311" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B311" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C311" s="2">
         <v>2</v>
@@ -8850,7 +8856,7 @@
     </row>
     <row r="312" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B312" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C312" s="2">
         <v>2</v>
@@ -8876,7 +8882,7 @@
     </row>
     <row r="313" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B313" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C313" s="2">
         <v>2</v>
@@ -8902,7 +8908,7 @@
     </row>
     <row r="314" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B314" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C314" s="2">
         <v>2</v>
@@ -8928,7 +8934,7 @@
     </row>
     <row r="315" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B315" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C315" s="2">
         <v>2</v>
@@ -8954,7 +8960,7 @@
     </row>
     <row r="316" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B316" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C316" s="2">
         <v>2</v>
@@ -8980,7 +8986,7 @@
     </row>
     <row r="317" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B317" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C317" s="2">
         <v>2</v>
@@ -9006,7 +9012,7 @@
     </row>
     <row r="318" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B318" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C318" s="2">
         <v>2</v>
@@ -9032,7 +9038,7 @@
     </row>
     <row r="319" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B319" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C319" s="2">
         <v>2</v>
@@ -9058,7 +9064,7 @@
     </row>
     <row r="320" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B320" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C320" s="2">
         <v>2</v>
@@ -9084,7 +9090,7 @@
     </row>
     <row r="321" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B321" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C321" s="2">
         <v>2</v>
@@ -9110,13 +9116,13 @@
     </row>
     <row r="322" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B322" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C322" s="2">
         <v>2</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E322" s="2">
         <v>398141</v>
@@ -9131,12 +9137,12 @@
         <v>612</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="323" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B323" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C323" s="2">
         <v>2</v>
@@ -9157,15 +9163,15 @@
         <v>142</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J323" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="324" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B324" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C324" s="2">
         <v>2</v>
@@ -9186,12 +9192,12 @@
         <v>613</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="325" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B325" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C325" s="2">
         <v>2</v>
@@ -9212,12 +9218,12 @@
         <v>614</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="326" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B326" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C326" s="2">
         <v>2</v>
@@ -9238,12 +9244,12 @@
         <v>615</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="327" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B327" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C327" s="2">
         <v>2</v>
@@ -9264,12 +9270,12 @@
         <v>617</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="328" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B328" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C328" s="2">
         <v>2</v>
@@ -9290,12 +9296,12 @@
         <v>618</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="329" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B329" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C329" s="2">
         <v>2</v>
@@ -9316,12 +9322,12 @@
         <v>619</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="330" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B330" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C330" s="2">
         <v>2</v>
@@ -9342,12 +9348,12 @@
         <v>620</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="331" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B331" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C331" s="2">
         <v>2</v>
@@ -9368,12 +9374,12 @@
         <v>621</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="332" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B332" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C332" s="2">
         <v>2</v>
@@ -9394,12 +9400,12 @@
         <v>622</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="333" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B333" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C333" s="2">
         <v>2</v>
@@ -9420,12 +9426,12 @@
         <v>623</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="334" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B334" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C334" s="2">
         <v>2</v>
@@ -9446,12 +9452,12 @@
         <v>625</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="335" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B335" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C335" s="2">
         <v>2</v>
@@ -9472,12 +9478,12 @@
         <v>627</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="336" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B336" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C336" s="2">
         <v>2</v>
@@ -9498,12 +9504,12 @@
         <v>628</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="337" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B337" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C337" s="2">
         <v>2</v>
@@ -9524,12 +9530,12 @@
         <v>629</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="338" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B338" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C338" s="2">
         <v>2</v>
@@ -9550,12 +9556,12 @@
         <v>630</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="339" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B339" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C339" s="2">
         <v>2</v>
@@ -9576,12 +9582,12 @@
         <v>631</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="340" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B340" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C340" s="2">
         <v>2</v>
@@ -9602,12 +9608,12 @@
         <v>632</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="341" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B341" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C341" s="2">
         <v>2</v>
@@ -9628,12 +9634,12 @@
         <v>633</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="342" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B342" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C342" s="2">
         <v>2</v>
@@ -9654,12 +9660,12 @@
         <v>635</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="343" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B343" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C343" s="2">
         <v>2</v>
@@ -9680,12 +9686,12 @@
         <v>636</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="344" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B344" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C344" s="2">
         <v>2</v>
@@ -9706,12 +9712,12 @@
         <v>637</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="345" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B345" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C345" s="2">
         <v>2</v>
@@ -9732,12 +9738,12 @@
         <v>638</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="346" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B346" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C346" s="2">
         <v>2</v>
@@ -9758,12 +9764,12 @@
         <v>639</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="347" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B347" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C347" s="2">
         <v>2</v>
@@ -9784,12 +9790,12 @@
         <v>640</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="348" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B348" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C348" s="2">
         <v>2</v>
@@ -9810,12 +9816,12 @@
         <v>641</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="349" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B349" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C349" s="2">
         <v>2</v>
@@ -9836,12 +9842,12 @@
         <v>642</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="350" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B350" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C350" s="2">
         <v>2</v>
@@ -9862,12 +9868,12 @@
         <v>643</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="351" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B351" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C351" s="2">
         <v>2</v>
@@ -9888,12 +9894,12 @@
         <v>644</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="352" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B352" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C352" s="2">
         <v>2</v>
@@ -9914,12 +9920,12 @@
         <v>645</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="353" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B353" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C353" s="2">
         <v>2</v>
@@ -9940,12 +9946,12 @@
         <v>646</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="354" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B354" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C354" s="2">
         <v>2</v>
@@ -9966,12 +9972,12 @@
         <v>647</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="355" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B355" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C355" s="2">
         <v>2</v>
@@ -9992,12 +9998,12 @@
         <v>648</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="356" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B356" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C356" s="2">
         <v>2</v>
@@ -10018,12 +10024,12 @@
         <v>649</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="357" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B357" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C357" s="2">
         <v>2</v>
@@ -10044,12 +10050,12 @@
         <v>650</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="358" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B358" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C358" s="2">
         <v>2</v>
@@ -10070,12 +10076,12 @@
         <v>651</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="359" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B359" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C359" s="2">
         <v>2</v>
@@ -10096,12 +10102,12 @@
         <v>652</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="360" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B360" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C360" s="2">
         <v>2</v>
@@ -10122,12 +10128,12 @@
         <v>653</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="361" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B361" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C361" s="2">
         <v>2</v>
@@ -10148,12 +10154,12 @@
         <v>654</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="362" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B362" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C362" s="2">
         <v>2</v>
@@ -10174,12 +10180,12 @@
         <v>655</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="363" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B363" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C363" s="2">
         <v>1</v>
@@ -10200,12 +10206,12 @@
         <v>144</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="364" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B364" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C364" s="2">
         <v>1</v>
@@ -10226,12 +10232,12 @@
         <v>145</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="365" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B365" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C365" s="2">
         <v>1</v>
@@ -10252,12 +10258,12 @@
         <v>146</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="366" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B366" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C366" s="2">
         <v>1</v>
@@ -10278,12 +10284,12 @@
         <v>147</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="367" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B367" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C367" s="2">
         <v>1</v>
@@ -10304,12 +10310,12 @@
         <v>148</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="368" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B368" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C368" s="2">
         <v>1</v>
@@ -10330,12 +10336,12 @@
         <v>149</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B369" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C369" s="2">
         <v>1</v>
@@ -10356,12 +10362,12 @@
         <v>150</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="370" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B370" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C370" s="2">
         <v>1</v>
@@ -10382,12 +10388,12 @@
         <v>151</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="371" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B371" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C371" s="2">
         <v>1</v>
@@ -10408,12 +10414,12 @@
         <v>152</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="372" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B372" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C372" s="2">
         <v>1</v>
@@ -10434,12 +10440,12 @@
         <v>153</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="373" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B373" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C373" s="2">
         <v>1</v>
@@ -10460,12 +10466,12 @@
         <v>154</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="374" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B374" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C374" s="2">
         <v>1</v>
@@ -10486,12 +10492,12 @@
         <v>155</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="375" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B375" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C375" s="2">
         <v>1</v>
@@ -10512,12 +10518,12 @@
         <v>156</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="376" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B376" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C376" s="2">
         <v>1</v>
@@ -10538,12 +10544,12 @@
         <v>157</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="377" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B377" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C377" s="2">
         <v>1</v>
@@ -10564,12 +10570,12 @@
         <v>158</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="378" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B378" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C378" s="2">
         <v>1</v>
@@ -10590,12 +10596,12 @@
         <v>159</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="379" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B379" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C379" s="2">
         <v>1</v>
@@ -10616,12 +10622,12 @@
         <v>160</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="380" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B380" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C380" s="2">
         <v>1</v>
@@ -10642,12 +10648,12 @@
         <v>161</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="381" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B381" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C381" s="2">
         <v>1</v>
@@ -10668,12 +10674,12 @@
         <v>162</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="382" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B382" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C382" s="2">
         <v>1</v>
@@ -10694,13 +10700,13 @@
         <v>163</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="383" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A383" s="3"/>
       <c r="B383" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C383" s="3">
         <v>1</v>
@@ -10721,7 +10727,7 @@
         <v>164</v>
       </c>
       <c r="I383" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J383" s="3" t="s">
         <v>13</v>
@@ -10732,7 +10738,7 @@
     </row>
     <row r="384" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B384" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C384" s="2">
         <v>2</v>
@@ -10758,7 +10764,7 @@
     </row>
     <row r="385" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B385" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C385" s="2">
         <v>2</v>
@@ -10784,7 +10790,7 @@
     </row>
     <row r="386" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B386" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C386" s="2">
         <v>2</v>
@@ -10810,7 +10816,7 @@
     </row>
     <row r="387" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B387" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C387" s="2">
         <v>2</v>
@@ -10836,7 +10842,7 @@
     </row>
     <row r="388" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B388" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C388" s="2">
         <v>2</v>
@@ -10862,7 +10868,7 @@
     </row>
     <row r="389" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B389" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C389" s="2">
         <v>2</v>
@@ -10888,7 +10894,7 @@
     </row>
     <row r="390" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B390" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C390" s="2">
         <v>2</v>
@@ -10914,7 +10920,7 @@
     </row>
     <row r="391" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B391" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C391" s="2">
         <v>2</v>
@@ -10940,7 +10946,7 @@
     </row>
     <row r="392" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B392" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C392" s="2">
         <v>2</v>
@@ -10966,7 +10972,7 @@
     </row>
     <row r="393" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B393" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C393" s="2">
         <v>2</v>
@@ -10992,7 +10998,7 @@
     </row>
     <row r="394" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B394" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C394" s="2">
         <v>2</v>
@@ -11018,7 +11024,7 @@
     </row>
     <row r="395" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B395" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C395" s="2">
         <v>2</v>
@@ -11044,7 +11050,7 @@
     </row>
     <row r="396" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B396" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C396" s="2">
         <v>2</v>
@@ -11070,7 +11076,7 @@
     </row>
     <row r="397" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B397" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C397" s="2">
         <v>2</v>
@@ -11096,7 +11102,7 @@
     </row>
     <row r="398" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B398" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C398" s="2">
         <v>2</v>
@@ -11122,7 +11128,7 @@
     </row>
     <row r="399" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B399" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C399" s="2">
         <v>2</v>
@@ -11148,7 +11154,7 @@
     </row>
     <row r="400" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B400" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C400" s="2">
         <v>2</v>
@@ -11174,7 +11180,7 @@
     </row>
     <row r="401" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B401" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C401" s="2">
         <v>2</v>
@@ -11200,7 +11206,7 @@
     </row>
     <row r="402" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B402" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C402" s="2">
         <v>1</v>
@@ -11226,7 +11232,7 @@
     </row>
     <row r="403" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B403" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C403" s="2">
         <v>1</v>
@@ -11252,7 +11258,7 @@
     </row>
     <row r="404" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B404" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C404" s="2">
         <v>1</v>
@@ -11278,7 +11284,7 @@
     </row>
     <row r="405" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B405" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C405" s="2">
         <v>1</v>
@@ -11304,7 +11310,7 @@
     </row>
     <row r="406" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B406" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C406" s="2">
         <v>1</v>
@@ -11330,7 +11336,7 @@
     </row>
     <row r="407" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B407" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C407" s="2">
         <v>1</v>
@@ -11356,7 +11362,7 @@
     </row>
     <row r="408" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B408" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C408" s="2">
         <v>1</v>
@@ -11377,12 +11383,12 @@
         <v>662</v>
       </c>
       <c r="I408" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="409" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B409" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C409" s="2">
         <v>1</v>
@@ -11403,12 +11409,12 @@
         <v>663</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="410" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B410" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C410" s="2">
         <v>1</v>
@@ -11429,12 +11435,12 @@
         <v>666</v>
       </c>
       <c r="I410" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="411" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B411" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C411" s="2">
         <v>1</v>
@@ -11455,12 +11461,12 @@
         <v>665</v>
       </c>
       <c r="I411" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="412" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B412" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C412" s="2">
         <v>1</v>
@@ -11481,12 +11487,12 @@
         <v>667</v>
       </c>
       <c r="I412" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="413" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B413" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C413" s="2">
         <v>1</v>
@@ -11507,12 +11513,12 @@
         <v>668</v>
       </c>
       <c r="I413" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="414" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B414" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C414" s="2">
         <v>1</v>
@@ -11533,12 +11539,12 @@
         <v>669</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="415" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B415" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C415" s="2">
         <v>1</v>
@@ -11559,12 +11565,12 @@
         <v>671</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="416" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B416" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C416" s="2">
         <v>1</v>
@@ -11585,12 +11591,12 @@
         <v>672</v>
       </c>
       <c r="I416" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="417" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B417" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C417" s="2">
         <v>1</v>
@@ -11611,13 +11617,13 @@
         <v>673</v>
       </c>
       <c r="I417" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="418" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A418" s="3"/>
       <c r="B418" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C418" s="3">
         <v>1</v>
@@ -11638,16 +11644,16 @@
         <v>674</v>
       </c>
       <c r="I418" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J418" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K418" s="3"/>
     </row>
     <row r="419" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B419" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C419" s="2">
         <v>1</v>
@@ -11668,12 +11674,12 @@
         <v>1089</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="420" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B420" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C420" s="2">
         <v>1</v>
@@ -11694,12 +11700,12 @@
         <v>1090</v>
       </c>
       <c r="I420" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="421" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B421" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C421" s="2">
         <v>1</v>
@@ -11720,12 +11726,12 @@
         <v>1091</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="422" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B422" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C422" s="2">
         <v>1</v>
@@ -11746,12 +11752,12 @@
         <v>1093</v>
       </c>
       <c r="I422" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="423" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B423" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C423" s="2">
         <v>1</v>
@@ -11772,12 +11778,12 @@
         <v>1092</v>
       </c>
       <c r="I423" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="424" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B424" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C424" s="2">
         <v>1</v>
@@ -11798,12 +11804,12 @@
         <v>1094</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="425" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B425" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C425" s="2">
         <v>1</v>
@@ -11824,12 +11830,12 @@
         <v>676</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="426" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B426" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C426" s="2">
         <v>1</v>
@@ -11850,12 +11856,12 @@
         <v>677</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="427" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B427" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C427" s="2">
         <v>1</v>
@@ -11876,12 +11882,12 @@
         <v>678</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="428" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B428" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C428" s="2">
         <v>1</v>
@@ -11902,12 +11908,12 @@
         <v>679</v>
       </c>
       <c r="I428" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="429" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B429" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C429" s="2">
         <v>1</v>
@@ -11928,12 +11934,12 @@
         <v>680</v>
       </c>
       <c r="I429" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="430" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B430" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C430" s="2">
         <v>1</v>
@@ -11954,12 +11960,12 @@
         <v>681</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="431" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B431" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C431" s="2">
         <v>1</v>
@@ -11980,12 +11986,12 @@
         <v>682</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="432" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B432" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C432" s="2">
         <v>1</v>
@@ -12006,12 +12012,12 @@
         <v>683</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="433" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B433" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C433" s="2">
         <v>1</v>
@@ -12032,12 +12038,12 @@
         <v>684</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="434" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B434" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C434" s="2">
         <v>1</v>
@@ -12058,12 +12064,12 @@
         <v>685</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="435" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B435" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C435" s="2">
         <v>1</v>
@@ -12084,12 +12090,12 @@
         <v>686</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="436" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B436" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C436" s="2">
         <v>1</v>
@@ -12110,12 +12116,12 @@
         <v>687</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="437" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B437" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C437" s="2">
         <v>1</v>
@@ -12136,12 +12142,12 @@
         <v>688</v>
       </c>
       <c r="I437" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="438" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B438" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C438" s="2">
         <v>1</v>
@@ -12162,12 +12168,12 @@
         <v>689</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="439" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B439" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C439" s="2">
         <v>1</v>
@@ -12188,12 +12194,12 @@
         <v>690</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="440" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B440" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C440" s="2">
         <v>1</v>
@@ -12219,7 +12225,7 @@
     </row>
     <row r="441" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B441" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C441" s="2">
         <v>1</v>
@@ -12245,7 +12251,7 @@
     </row>
     <row r="442" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B442" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C442" s="2">
         <v>1</v>
@@ -12271,7 +12277,7 @@
     </row>
     <row r="443" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B443" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C443" s="2">
         <v>1</v>
@@ -12297,7 +12303,7 @@
     </row>
     <row r="444" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B444" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C444" s="2">
         <v>1</v>
@@ -12323,7 +12329,7 @@
     </row>
     <row r="445" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B445" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C445" s="2">
         <v>1</v>
@@ -12349,7 +12355,7 @@
     </row>
     <row r="446" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B446" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C446" s="2">
         <v>1</v>
@@ -12375,7 +12381,7 @@
     </row>
     <row r="447" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B447" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C447" s="2">
         <v>1</v>
@@ -12401,7 +12407,7 @@
     </row>
     <row r="448" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B448" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C448" s="2">
         <v>1</v>
@@ -12427,7 +12433,7 @@
     </row>
     <row r="449" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B449" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C449" s="2">
         <v>1</v>
@@ -12453,7 +12459,7 @@
     </row>
     <row r="450" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B450" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C450" s="2">
         <v>1</v>
@@ -12479,7 +12485,7 @@
     </row>
     <row r="451" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B451" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C451" s="2">
         <v>1</v>
@@ -12505,7 +12511,7 @@
     </row>
     <row r="452" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B452" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C452" s="2">
         <v>1</v>
@@ -12531,7 +12537,7 @@
     </row>
     <row r="453" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B453" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C453" s="2">
         <v>1</v>
@@ -12552,12 +12558,12 @@
         <v>692</v>
       </c>
       <c r="I453" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="454" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B454" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C454" s="2">
         <v>1</v>
@@ -12578,12 +12584,12 @@
         <v>693</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="455" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B455" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C455" s="2">
         <v>1</v>
@@ -12604,12 +12610,12 @@
         <v>694</v>
       </c>
       <c r="I455" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="456" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B456" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C456" s="2">
         <v>1</v>
@@ -12630,12 +12636,12 @@
         <v>695</v>
       </c>
       <c r="I456" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="457" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B457" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C457" s="2">
         <v>1</v>
@@ -12656,12 +12662,12 @@
         <v>696</v>
       </c>
       <c r="I457" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="458" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B458" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C458" s="2">
         <v>1</v>
@@ -12682,12 +12688,12 @@
         <v>697</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="459" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B459" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C459" s="2">
         <v>1</v>
@@ -12708,12 +12714,12 @@
         <v>698</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="460" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B460" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C460" s="2">
         <v>1</v>
@@ -12734,12 +12740,12 @@
         <v>699</v>
       </c>
       <c r="I460" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="461" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B461" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C461" s="2">
         <v>1</v>
@@ -12760,12 +12766,12 @@
         <v>700</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="462" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B462" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C462" s="2">
         <v>1</v>
@@ -12786,12 +12792,12 @@
         <v>701</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="463" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B463" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C463" s="2">
         <v>1</v>
@@ -12812,12 +12818,12 @@
         <v>702</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="464" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B464" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C464" s="2">
         <v>1</v>
@@ -12838,12 +12844,12 @@
         <v>703</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="465" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B465" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C465" s="2">
         <v>1</v>
@@ -12864,12 +12870,12 @@
         <v>704</v>
       </c>
       <c r="I465" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="466" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B466" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C466" s="2">
         <v>1</v>
@@ -12890,12 +12896,12 @@
         <v>705</v>
       </c>
       <c r="I466" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="467" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B467" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C467" s="2">
         <v>1</v>
@@ -12916,12 +12922,12 @@
         <v>706</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="468" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B468" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C468" s="2">
         <v>1</v>
@@ -12942,12 +12948,12 @@
         <v>707</v>
       </c>
       <c r="I468" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="469" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B469" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C469" s="2">
         <v>1</v>
@@ -12968,12 +12974,12 @@
         <v>708</v>
       </c>
       <c r="I469" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="470" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B470" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C470" s="2">
         <v>1</v>
@@ -12994,12 +13000,12 @@
         <v>709</v>
       </c>
       <c r="I470" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="471" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B471" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C471" s="2">
         <v>1</v>
@@ -13020,12 +13026,12 @@
         <v>710</v>
       </c>
       <c r="I471" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="472" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B472" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C472" s="2">
         <v>1</v>
@@ -13046,12 +13052,12 @@
         <v>711</v>
       </c>
       <c r="I472" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="473" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B473" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C473" s="2">
         <v>1</v>
@@ -13077,7 +13083,7 @@
     </row>
     <row r="474" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B474" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C474" s="2">
         <v>1</v>
@@ -13098,15 +13104,15 @@
         <v>691</v>
       </c>
       <c r="I474" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J474" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="475" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B475" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C475" s="2">
         <v>1</v>
@@ -13132,7 +13138,7 @@
     </row>
     <row r="476" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B476" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C476" s="2">
         <v>1</v>
@@ -13158,7 +13164,7 @@
     </row>
     <row r="477" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B477" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C477" s="2">
         <v>1</v>
@@ -13182,12 +13188,12 @@
         <v>11</v>
       </c>
       <c r="J477" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="478" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B478" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C478" s="2">
         <v>1</v>
@@ -13211,12 +13217,12 @@
         <v>11</v>
       </c>
       <c r="J478" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="479" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B479" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C479" s="2">
         <v>1</v>
@@ -13242,7 +13248,7 @@
     </row>
     <row r="480" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B480" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C480" s="2">
         <v>1</v>
@@ -13268,7 +13274,7 @@
     </row>
     <row r="481" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B481" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C481" s="2">
         <v>1</v>
@@ -13294,7 +13300,7 @@
     </row>
     <row r="482" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B482" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C482" s="2">
         <v>1</v>
@@ -13320,7 +13326,7 @@
     </row>
     <row r="483" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B483" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C483" s="2">
         <v>1</v>
@@ -13346,7 +13352,7 @@
     </row>
     <row r="484" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B484" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C484" s="2">
         <v>1</v>
@@ -13372,7 +13378,7 @@
     </row>
     <row r="485" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B485" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C485" s="2">
         <v>1</v>
@@ -13401,7 +13407,7 @@
     </row>
     <row r="486" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B486" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C486" s="2">
         <v>1</v>
@@ -13427,7 +13433,7 @@
     </row>
     <row r="487" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B487" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C487" s="2">
         <v>1</v>
@@ -13453,7 +13459,7 @@
     </row>
     <row r="488" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B488" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C488" s="2">
         <v>1</v>
@@ -13479,7 +13485,7 @@
     </row>
     <row r="489" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B489" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C489" s="2">
         <v>1</v>
@@ -13505,7 +13511,7 @@
     </row>
     <row r="490" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B490" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C490" s="2">
         <v>1</v>
@@ -13531,7 +13537,7 @@
     </row>
     <row r="491" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B491" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C491" s="2">
         <v>1</v>
@@ -13557,7 +13563,7 @@
     </row>
     <row r="492" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B492" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C492" s="2">
         <v>1</v>
@@ -13583,7 +13589,7 @@
     </row>
     <row r="493" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B493" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C493" s="2">
         <v>1</v>
@@ -13609,7 +13615,7 @@
     </row>
     <row r="494" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B494" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C494" s="2">
         <v>1</v>
@@ -13636,7 +13642,7 @@
     <row r="495" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A495" s="3"/>
       <c r="B495" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C495" s="3">
         <v>1</v>
@@ -13663,7 +13669,7 @@
     </row>
     <row r="496" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B496" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C496" s="2">
         <v>1</v>
@@ -13689,7 +13695,7 @@
     </row>
     <row r="497" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B497" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C497" s="2">
         <v>1</v>
@@ -13715,7 +13721,7 @@
     </row>
     <row r="498" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B498" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C498" s="2">
         <v>1</v>
@@ -13741,7 +13747,7 @@
     </row>
     <row r="499" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B499" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C499" s="2">
         <v>1</v>
@@ -13767,7 +13773,7 @@
     </row>
     <row r="500" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B500" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C500" s="2">
         <v>1</v>
@@ -13793,7 +13799,7 @@
     </row>
     <row r="501" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B501" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C501" s="2">
         <v>1</v>
@@ -13819,7 +13825,7 @@
     </row>
     <row r="502" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B502" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C502" s="2">
         <v>1</v>
@@ -13845,7 +13851,7 @@
     </row>
     <row r="503" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B503" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C503" s="2">
         <v>1</v>
@@ -13871,7 +13877,7 @@
     </row>
     <row r="504" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B504" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C504" s="2">
         <v>1</v>
@@ -13897,7 +13903,7 @@
     </row>
     <row r="505" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B505" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C505" s="2">
         <v>1</v>
@@ -13923,7 +13929,7 @@
     </row>
     <row r="506" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B506" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C506" s="2">
         <v>1</v>
@@ -13949,7 +13955,7 @@
     </row>
     <row r="507" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B507" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C507" s="2">
         <v>1</v>
@@ -13975,7 +13981,7 @@
     </row>
     <row r="508" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B508" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C508" s="2">
         <v>1</v>
@@ -14001,7 +14007,7 @@
     </row>
     <row r="509" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B509" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C509" s="2">
         <v>1</v>
@@ -14027,7 +14033,7 @@
     </row>
     <row r="510" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B510" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C510" s="2">
         <v>1</v>
@@ -14053,7 +14059,7 @@
     </row>
     <row r="511" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B511" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C511" s="2">
         <v>1</v>
@@ -14079,7 +14085,7 @@
     </row>
     <row r="512" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B512" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C512" s="2">
         <v>1</v>
@@ -14105,7 +14111,7 @@
     </row>
     <row r="513" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B513" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C513" s="2">
         <v>1</v>
@@ -14131,7 +14137,7 @@
     </row>
     <row r="514" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B514" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C514" s="2">
         <v>1</v>
@@ -14157,7 +14163,7 @@
     </row>
     <row r="515" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B515" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C515" s="2">
         <v>1</v>
@@ -14183,7 +14189,7 @@
     </row>
     <row r="516" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B516" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C516" s="2">
         <v>1</v>
@@ -14209,7 +14215,7 @@
     </row>
     <row r="517" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B517" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C517" s="2">
         <v>1</v>
@@ -14235,7 +14241,7 @@
     </row>
     <row r="518" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B518" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C518" s="2">
         <v>1</v>
@@ -14261,7 +14267,7 @@
     </row>
     <row r="519" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B519" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C519" s="2">
         <v>1</v>
@@ -14287,7 +14293,7 @@
     </row>
     <row r="520" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B520" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C520" s="2">
         <v>1</v>
@@ -14313,7 +14319,7 @@
     </row>
     <row r="521" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B521" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C521" s="2">
         <v>1</v>
@@ -14339,7 +14345,7 @@
     </row>
     <row r="522" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B522" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C522" s="2">
         <v>1</v>
@@ -14365,7 +14371,7 @@
     </row>
     <row r="523" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B523" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C523" s="2">
         <v>1</v>
@@ -14391,7 +14397,7 @@
     </row>
     <row r="524" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B524" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C524" s="2">
         <v>1</v>
@@ -14417,7 +14423,7 @@
     </row>
     <row r="525" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B525" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C525" s="2">
         <v>1</v>
@@ -14443,7 +14449,7 @@
     </row>
     <row r="526" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B526" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C526" s="2">
         <v>2</v>
@@ -14469,7 +14475,7 @@
     </row>
     <row r="527" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B527" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C527" s="2">
         <v>2</v>
@@ -14495,7 +14501,7 @@
     </row>
     <row r="528" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B528" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C528" s="2">
         <v>2</v>
@@ -14521,7 +14527,7 @@
     </row>
     <row r="529" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B529" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C529" s="2">
         <v>2</v>
@@ -14547,7 +14553,7 @@
     </row>
     <row r="530" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B530" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C530" s="2">
         <v>2</v>
@@ -14573,7 +14579,7 @@
     </row>
     <row r="531" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B531" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C531" s="2">
         <v>2</v>
@@ -14599,7 +14605,7 @@
     </row>
     <row r="532" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B532" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C532" s="2">
         <v>2</v>
@@ -14625,7 +14631,7 @@
     </row>
     <row r="533" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B533" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C533" s="2">
         <v>2</v>
@@ -14651,7 +14657,7 @@
     </row>
     <row r="534" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B534" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C534" s="2">
         <v>2</v>
@@ -14677,7 +14683,7 @@
     </row>
     <row r="535" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B535" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C535" s="2">
         <v>2</v>
@@ -14703,7 +14709,7 @@
     </row>
     <row r="536" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B536" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C536" s="2">
         <v>2</v>
@@ -14729,7 +14735,7 @@
     </row>
     <row r="537" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B537" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C537" s="2">
         <v>2</v>
@@ -14755,7 +14761,7 @@
     </row>
     <row r="538" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B538" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C538" s="2">
         <v>2</v>
@@ -14781,7 +14787,7 @@
     </row>
     <row r="539" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B539" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C539" s="2">
         <v>2</v>
@@ -14807,7 +14813,7 @@
     </row>
     <row r="540" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B540" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C540" s="2">
         <v>2</v>
@@ -14833,7 +14839,7 @@
     </row>
     <row r="541" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B541" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C541" s="2">
         <v>2</v>
@@ -14859,7 +14865,7 @@
     </row>
     <row r="542" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B542" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C542" s="2">
         <v>2</v>
@@ -14885,7 +14891,7 @@
     </row>
     <row r="543" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B543" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C543" s="2">
         <v>2</v>
@@ -14911,7 +14917,7 @@
     </row>
     <row r="544" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B544" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C544" s="2">
         <v>2</v>
@@ -14937,7 +14943,7 @@
     </row>
     <row r="545" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B545" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C545" s="2">
         <v>2</v>
@@ -14963,7 +14969,7 @@
     </row>
     <row r="546" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B546" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C546" s="2">
         <v>2</v>
@@ -14984,12 +14990,12 @@
         <v>1150</v>
       </c>
       <c r="I546" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="547" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B547" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C547" s="2">
         <v>2</v>
@@ -15010,12 +15016,12 @@
         <v>1151</v>
       </c>
       <c r="I547" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="548" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B548" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C548" s="2">
         <v>2</v>
@@ -15036,12 +15042,12 @@
         <v>1152</v>
       </c>
       <c r="I548" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="549" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B549" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C549" s="2">
         <v>2</v>
@@ -15062,12 +15068,12 @@
         <v>1153</v>
       </c>
       <c r="I549" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="550" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B550" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C550" s="2">
         <v>2</v>
@@ -15088,12 +15094,12 @@
         <v>1154</v>
       </c>
       <c r="I550" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="551" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B551" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C551" s="2">
         <v>2</v>
@@ -15114,12 +15120,12 @@
         <v>1155</v>
       </c>
       <c r="I551" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="552" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B552" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C552" s="2">
         <v>2</v>
@@ -15140,12 +15146,12 @@
         <v>1156</v>
       </c>
       <c r="I552" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="553" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B553" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C553" s="2">
         <v>2</v>
@@ -15166,12 +15172,12 @@
         <v>1157</v>
       </c>
       <c r="I553" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="554" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B554" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C554" s="2">
         <v>2</v>
@@ -15192,12 +15198,12 @@
         <v>1158</v>
       </c>
       <c r="I554" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="555" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B555" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C555" s="2">
         <v>2</v>
@@ -15218,12 +15224,12 @@
         <v>1159</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="556" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B556" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C556" s="2">
         <v>2</v>
@@ -15246,7 +15252,7 @@
     </row>
     <row r="557" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B557" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C557" s="2">
         <v>1</v>
@@ -15272,7 +15278,7 @@
     </row>
     <row r="558" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B558" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C558" s="2">
         <v>1</v>
@@ -15298,7 +15304,7 @@
     </row>
     <row r="559" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B559" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C559" s="2">
         <v>1</v>
@@ -15324,7 +15330,7 @@
     </row>
     <row r="560" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B560" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C560" s="2">
         <v>1</v>
@@ -15350,7 +15356,7 @@
     </row>
     <row r="561" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B561" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C561" s="2">
         <v>1</v>
@@ -15376,7 +15382,7 @@
     </row>
     <row r="562" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B562" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C562" s="2">
         <v>1</v>
@@ -15402,7 +15408,7 @@
     </row>
     <row r="563" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B563" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C563" s="2">
         <v>1</v>
@@ -15428,7 +15434,7 @@
     </row>
     <row r="564" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B564" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C564" s="2">
         <v>1</v>
@@ -15454,7 +15460,7 @@
     </row>
     <row r="565" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B565" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C565" s="2">
         <v>1</v>
@@ -15480,7 +15486,7 @@
     </row>
     <row r="566" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B566" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C566" s="2">
         <v>1</v>
@@ -15506,7 +15512,7 @@
     </row>
     <row r="567" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B567" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C567" s="2">
         <v>1</v>
@@ -15532,7 +15538,7 @@
     </row>
     <row r="568" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B568" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C568" s="2">
         <v>1</v>
@@ -15558,7 +15564,7 @@
     </row>
     <row r="569" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B569" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C569" s="2">
         <v>1</v>
@@ -15584,7 +15590,7 @@
     </row>
     <row r="570" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B570" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C570" s="2">
         <v>1</v>
@@ -15610,7 +15616,7 @@
     </row>
     <row r="571" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B571" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C571" s="2">
         <v>1</v>
@@ -15636,7 +15642,7 @@
     </row>
     <row r="572" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B572" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C572" s="2">
         <v>1</v>
@@ -15662,7 +15668,7 @@
     </row>
     <row r="573" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B573" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C573" s="2">
         <v>1</v>
@@ -15688,7 +15694,7 @@
     </row>
     <row r="574" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B574" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C574" s="2">
         <v>1</v>
@@ -15714,7 +15720,7 @@
     </row>
     <row r="575" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B575" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C575" s="2">
         <v>1</v>
@@ -15740,7 +15746,7 @@
     </row>
     <row r="576" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B576" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C576" s="2">
         <v>2</v>
@@ -15766,7 +15772,7 @@
     </row>
     <row r="577" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B577" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C577" s="2">
         <v>2</v>
@@ -15792,7 +15798,7 @@
     </row>
     <row r="578" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B578" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C578" s="2">
         <v>2</v>
@@ -15818,7 +15824,7 @@
     </row>
     <row r="579" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B579" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C579" s="2">
         <v>2</v>
@@ -15844,7 +15850,7 @@
     </row>
     <row r="580" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B580" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C580" s="2">
         <v>2</v>
@@ -15870,7 +15876,7 @@
     </row>
     <row r="581" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B581" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C581" s="2">
         <v>2</v>
@@ -15896,7 +15902,7 @@
     </row>
     <row r="582" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B582" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C582" s="2">
         <v>2</v>
@@ -15922,7 +15928,7 @@
     </row>
     <row r="583" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B583" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C583" s="2">
         <v>2</v>
@@ -15948,7 +15954,7 @@
     </row>
     <row r="584" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B584" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C584" s="2">
         <v>2</v>
@@ -15974,7 +15980,7 @@
     </row>
     <row r="585" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B585" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C585" s="2">
         <v>2</v>
@@ -16000,7 +16006,7 @@
     </row>
     <row r="586" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B586" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C586" s="2">
         <v>2</v>
@@ -16026,7 +16032,7 @@
     </row>
     <row r="587" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B587" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C587" s="2">
         <v>2</v>
@@ -16052,7 +16058,7 @@
     </row>
     <row r="588" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B588" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C588" s="2">
         <v>2</v>
@@ -16078,7 +16084,7 @@
     </row>
     <row r="589" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B589" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C589" s="2">
         <v>2</v>
@@ -16104,7 +16110,7 @@
     </row>
     <row r="590" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B590" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C590" s="2">
         <v>2</v>
@@ -16130,7 +16136,7 @@
     </row>
     <row r="591" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B591" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C591" s="2">
         <v>2</v>
@@ -16156,7 +16162,7 @@
     </row>
     <row r="592" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B592" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C592" s="2">
         <v>2</v>
@@ -16182,7 +16188,7 @@
     </row>
     <row r="593" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B593" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C593" s="2">
         <v>2</v>
@@ -16208,7 +16214,7 @@
     </row>
     <row r="594" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B594" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C594" s="2">
         <v>2</v>
@@ -16237,7 +16243,7 @@
     </row>
     <row r="595" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B595" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C595" s="2">
         <v>2</v>
@@ -16263,7 +16269,7 @@
     </row>
     <row r="596" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B596" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C596" s="2">
         <v>2</v>
@@ -16289,7 +16295,7 @@
     </row>
     <row r="597" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B597" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C597" s="2">
         <v>2</v>
@@ -16315,7 +16321,7 @@
     </row>
     <row r="598" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B598" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C598" s="2">
         <v>2</v>
@@ -16341,7 +16347,7 @@
     </row>
     <row r="599" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B599" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C599" s="2">
         <v>2</v>
@@ -16367,7 +16373,7 @@
     </row>
     <row r="600" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B600" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C600" s="2">
         <v>2</v>
@@ -16393,7 +16399,7 @@
     </row>
     <row r="601" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B601" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C601" s="2">
         <v>2</v>
@@ -16419,7 +16425,7 @@
     </row>
     <row r="602" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B602" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C602" s="2">
         <v>2</v>
@@ -16445,7 +16451,7 @@
     </row>
     <row r="603" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B603" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C603" s="2">
         <v>2</v>
@@ -16471,7 +16477,7 @@
     </row>
     <row r="604" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B604" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C604" s="2">
         <v>2</v>
@@ -16497,7 +16503,7 @@
     </row>
     <row r="605" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B605" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C605" s="2">
         <v>2</v>
@@ -16523,7 +16529,7 @@
     </row>
     <row r="606" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B606" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C606" s="2">
         <v>2</v>
@@ -16549,7 +16555,7 @@
     </row>
     <row r="607" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B607" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C607" s="2">
         <v>2</v>
@@ -16575,7 +16581,7 @@
     </row>
     <row r="608" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B608" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C608" s="2">
         <v>2</v>
@@ -16601,7 +16607,7 @@
     </row>
     <row r="609" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B609" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C609" s="2">
         <v>2</v>
@@ -16627,7 +16633,7 @@
     </row>
     <row r="610" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B610" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C610" s="2">
         <v>2</v>
@@ -16653,7 +16659,7 @@
     </row>
     <row r="611" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B611" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C611" s="2">
         <v>2</v>
@@ -16679,7 +16685,7 @@
     </row>
     <row r="612" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B612" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C612" s="2">
         <v>2</v>
@@ -16705,7 +16711,7 @@
     </row>
     <row r="613" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B613" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C613" s="2">
         <v>2</v>
@@ -16731,7 +16737,7 @@
     </row>
     <row r="614" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B614" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C614" s="2">
         <v>2</v>
@@ -16757,7 +16763,7 @@
     </row>
     <row r="615" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B615" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C615" s="2">
         <v>2</v>
@@ -16783,7 +16789,7 @@
     </row>
     <row r="616" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B616" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C616" s="2">
         <v>2</v>
@@ -16809,7 +16815,7 @@
     </row>
     <row r="617" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B617" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C617" s="2">
         <v>2</v>
@@ -16835,7 +16841,7 @@
     </row>
     <row r="618" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B618" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C618" s="2">
         <v>2</v>
@@ -16861,7 +16867,7 @@
     </row>
     <row r="619" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B619" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C619" s="2">
         <v>2</v>
@@ -16887,7 +16893,7 @@
     </row>
     <row r="620" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B620" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C620" s="2">
         <v>2</v>
@@ -16913,7 +16919,7 @@
     </row>
     <row r="621" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B621" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C621" s="2">
         <v>2</v>
@@ -16939,7 +16945,7 @@
     </row>
     <row r="622" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B622" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C622" s="2">
         <v>2</v>
@@ -16965,7 +16971,7 @@
     </row>
     <row r="623" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B623" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C623" s="2">
         <v>2</v>
@@ -16991,7 +16997,7 @@
     </row>
     <row r="624" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B624" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C624" s="2">
         <v>2</v>
@@ -17017,7 +17023,7 @@
     </row>
     <row r="625" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B625" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C625" s="2">
         <v>2</v>
@@ -17046,7 +17052,7 @@
     </row>
     <row r="626" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B626" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C626" s="2">
         <v>1</v>
@@ -17070,12 +17076,12 @@
         <v>12</v>
       </c>
       <c r="J626" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="627" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B627" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C627" s="2">
         <v>1</v>
@@ -17101,7 +17107,7 @@
     </row>
     <row r="628" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B628" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C628" s="2">
         <v>1</v>
@@ -17127,7 +17133,7 @@
     </row>
     <row r="629" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B629" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C629" s="2">
         <v>1</v>
@@ -17153,7 +17159,7 @@
     </row>
     <row r="630" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B630" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C630" s="2">
         <v>1</v>
@@ -17179,7 +17185,7 @@
     </row>
     <row r="631" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B631" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C631" s="2">
         <v>1</v>
@@ -17205,7 +17211,7 @@
     </row>
     <row r="632" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B632" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C632" s="2">
         <v>1</v>
@@ -17231,7 +17237,7 @@
     </row>
     <row r="633" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B633" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C633" s="2">
         <v>1</v>
@@ -17257,7 +17263,7 @@
     </row>
     <row r="634" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B634" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C634" s="2">
         <v>1</v>
@@ -17283,7 +17289,7 @@
     </row>
     <row r="635" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B635" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C635" s="2">
         <v>1</v>
@@ -17309,7 +17315,7 @@
     </row>
     <row r="636" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B636" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C636" s="2">
         <v>1</v>
@@ -17335,7 +17341,7 @@
     </row>
     <row r="637" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B637" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C637" s="2">
         <v>1</v>
@@ -17361,7 +17367,7 @@
     </row>
     <row r="638" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B638" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C638" s="2">
         <v>1</v>
@@ -17387,7 +17393,7 @@
     </row>
     <row r="639" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B639" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C639" s="2">
         <v>1</v>
@@ -17413,7 +17419,7 @@
     </row>
     <row r="640" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B640" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C640" s="2">
         <v>1</v>
@@ -17439,7 +17445,7 @@
     </row>
     <row r="641" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B641" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C641" s="2">
         <v>1</v>
@@ -17465,7 +17471,7 @@
     </row>
     <row r="642" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B642" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C642" s="2">
         <v>1</v>
@@ -17491,7 +17497,7 @@
     </row>
     <row r="643" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B643" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C643" s="2">
         <v>1</v>
@@ -17517,7 +17523,7 @@
     </row>
     <row r="644" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B644" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C644" s="2">
         <v>1</v>
@@ -17543,7 +17549,7 @@
     </row>
     <row r="645" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B645" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C645" s="2">
         <v>1</v>
@@ -17569,7 +17575,7 @@
     </row>
     <row r="646" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B646" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C646" s="2">
         <v>1</v>
@@ -17595,7 +17601,7 @@
     </row>
     <row r="647" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B647" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C647" s="2">
         <v>1</v>
@@ -17621,7 +17627,7 @@
     </row>
     <row r="648" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B648" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C648" s="2">
         <v>1</v>
@@ -17647,7 +17653,7 @@
     </row>
     <row r="649" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B649" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C649" s="2">
         <v>1</v>
@@ -17673,7 +17679,7 @@
     </row>
     <row r="650" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B650" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C650" s="2">
         <v>1</v>
@@ -17699,7 +17705,7 @@
     </row>
     <row r="651" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B651" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C651" s="2">
         <v>1</v>
@@ -17725,7 +17731,7 @@
     </row>
     <row r="652" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B652" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C652" s="2">
         <v>1</v>
@@ -17751,7 +17757,7 @@
     </row>
     <row r="653" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B653" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C653" s="2">
         <v>1</v>
@@ -17777,7 +17783,7 @@
     </row>
     <row r="654" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B654" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C654" s="2">
         <v>1</v>
@@ -17803,7 +17809,7 @@
     </row>
     <row r="655" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B655" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C655" s="2">
         <v>1</v>
@@ -17829,7 +17835,7 @@
     </row>
     <row r="656" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B656" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C656" s="2">
         <v>1</v>
@@ -17855,7 +17861,7 @@
     </row>
     <row r="657" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B657" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C657" s="2">
         <v>1</v>
@@ -17881,7 +17887,7 @@
     </row>
     <row r="658" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B658" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C658" s="2">
         <v>1</v>
@@ -17907,7 +17913,7 @@
     </row>
     <row r="659" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B659" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C659" s="2">
         <v>1</v>
@@ -17933,7 +17939,7 @@
     </row>
     <row r="660" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B660" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C660" s="2">
         <v>1</v>
@@ -17959,7 +17965,7 @@
     </row>
     <row r="661" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B661" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C661" s="2">
         <v>1</v>
@@ -17985,7 +17991,7 @@
     </row>
     <row r="662" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B662" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C662" s="2">
         <v>1</v>
@@ -18011,7 +18017,7 @@
     </row>
     <row r="663" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B663" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C663" s="2">
         <v>1</v>
@@ -18032,12 +18038,12 @@
         <v>730</v>
       </c>
       <c r="I663" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="664" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B664" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C664" s="2">
         <v>1</v>
@@ -18058,12 +18064,12 @@
         <v>731</v>
       </c>
       <c r="I664" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="665" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B665" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C665" s="2">
         <v>1</v>
@@ -18084,12 +18090,12 @@
         <v>732</v>
       </c>
       <c r="I665" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="666" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B666" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C666" s="2">
         <v>1</v>
@@ -18110,12 +18116,12 @@
         <v>733</v>
       </c>
       <c r="I666" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="667" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B667" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C667" s="2">
         <v>1</v>
@@ -18136,12 +18142,12 @@
         <v>735</v>
       </c>
       <c r="I667" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="668" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B668" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C668" s="2">
         <v>1</v>
@@ -18162,12 +18168,12 @@
         <v>734</v>
       </c>
       <c r="I668" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="669" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B669" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C669" s="2">
         <v>2</v>
@@ -18191,12 +18197,12 @@
         <v>11</v>
       </c>
       <c r="J669" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="670" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B670" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C670" s="2">
         <v>2</v>
@@ -18222,7 +18228,7 @@
     </row>
     <row r="671" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B671" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C671" s="2">
         <v>2</v>
@@ -18248,7 +18254,7 @@
     </row>
     <row r="672" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B672" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C672" s="2">
         <v>2</v>
@@ -18274,7 +18280,7 @@
     </row>
     <row r="673" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B673" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C673" s="2">
         <v>2</v>
@@ -18300,7 +18306,7 @@
     </row>
     <row r="674" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B674" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C674" s="2">
         <v>2</v>
@@ -18326,7 +18332,7 @@
     </row>
     <row r="675" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B675" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C675" s="2">
         <v>2</v>
@@ -18352,7 +18358,7 @@
     </row>
     <row r="676" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B676" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C676" s="2">
         <v>2</v>
@@ -18378,7 +18384,7 @@
     </row>
     <row r="677" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B677" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C677" s="2">
         <v>2</v>
@@ -18404,7 +18410,7 @@
     </row>
     <row r="678" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B678" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C678" s="2">
         <v>2</v>
@@ -18430,7 +18436,7 @@
     </row>
     <row r="679" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B679" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C679" s="2">
         <v>2</v>
@@ -18456,7 +18462,7 @@
     </row>
     <row r="680" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B680" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C680" s="2">
         <v>2</v>
@@ -18482,7 +18488,7 @@
     </row>
     <row r="681" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B681" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C681" s="2">
         <v>2</v>
@@ -18508,7 +18514,7 @@
     </row>
     <row r="682" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B682" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C682" s="2">
         <v>2</v>
@@ -18534,7 +18540,7 @@
     </row>
     <row r="683" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B683" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C683" s="2">
         <v>2</v>
@@ -18560,7 +18566,7 @@
     </row>
     <row r="684" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B684" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C684" s="2">
         <v>2</v>
@@ -18586,7 +18592,7 @@
     </row>
     <row r="685" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B685" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C685" s="2">
         <v>2</v>
@@ -18612,7 +18618,7 @@
     </row>
     <row r="686" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B686" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C686" s="2">
         <v>2</v>
@@ -18638,7 +18644,7 @@
     </row>
     <row r="687" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B687" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C687" s="2">
         <v>2</v>
@@ -18664,7 +18670,7 @@
     </row>
     <row r="688" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B688" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C688" s="2">
         <v>2</v>
@@ -18693,7 +18699,7 @@
     </row>
     <row r="689" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B689" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C689" s="2">
         <v>1</v>
@@ -18719,7 +18725,7 @@
     </row>
     <row r="690" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B690" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C690" s="2">
         <v>1</v>
@@ -18745,7 +18751,7 @@
     </row>
     <row r="691" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B691" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C691" s="2">
         <v>1</v>
@@ -18771,7 +18777,7 @@
     </row>
     <row r="692" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B692" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C692" s="2">
         <v>1</v>
@@ -18797,7 +18803,7 @@
     </row>
     <row r="693" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B693" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C693" s="2">
         <v>1</v>
@@ -18823,7 +18829,7 @@
     </row>
     <row r="694" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B694" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C694" s="2">
         <v>1</v>
@@ -18848,6 +18854,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd"/>
